--- a/raw_data/20200818_saline/20200818_Sensor3_Test_61.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_61.xlsx
@@ -1,1172 +1,1588 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD15819-726C-46D3-AD79-4BDE33389B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>54556.264888</v>
+        <v>54556.264887999998</v>
       </c>
       <c r="B2" s="1">
-        <v>15.154518</v>
+        <v>15.154517999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1146.890000</v>
+        <v>1146.8900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-254.223000</v>
+        <v>-254.22300000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>54566.382278</v>
+        <v>54566.382277999997</v>
       </c>
       <c r="G2" s="1">
         <v>15.157328</v>
       </c>
       <c r="H2" s="1">
-        <v>1168.340000</v>
+        <v>1168.3399999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-213.396000</v>
+        <v>-213.39599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>54576.539315</v>
+        <v>54576.539315000002</v>
       </c>
       <c r="L2" s="1">
-        <v>15.160150</v>
+        <v>15.16015</v>
       </c>
       <c r="M2" s="1">
-        <v>1194.450000</v>
+        <v>1194.45</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.546000</v>
+        <v>-148.54599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>54586.331339</v>
+        <v>54586.331338999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.162870</v>
+        <v>15.16287</v>
       </c>
       <c r="R2" s="1">
-        <v>1202.150000</v>
+        <v>1202.1500000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.994000</v>
+        <v>-126.994</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>54596.523624</v>
+        <v>54596.523624000001</v>
       </c>
       <c r="V2" s="1">
         <v>15.165701</v>
       </c>
       <c r="W2" s="1">
-        <v>1209.410000</v>
+        <v>1209.4100000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.489000</v>
+        <v>-106.489</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>54606.608315</v>
+        <v>54606.608314999998</v>
       </c>
       <c r="AA2" s="1">
         <v>15.168502</v>
       </c>
       <c r="AB2" s="1">
-        <v>1216.700000</v>
+        <v>1216.7</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.853700</v>
+        <v>-89.853700000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>54617.526718</v>
+        <v>54617.526718000001</v>
       </c>
       <c r="AF2" s="1">
         <v>15.171535</v>
       </c>
       <c r="AG2" s="1">
-        <v>1221.260000</v>
+        <v>1221.26</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.671000</v>
+        <v>-85.671000000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>54627.966014</v>
+        <v>54627.966013999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>15.174435</v>
+        <v>15.174435000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.400600</v>
+        <v>-89.400599999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>54638.253537</v>
+        <v>54638.253536999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>15.177293</v>
+        <v>15.177293000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1236.230000</v>
+        <v>1236.23</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.610000</v>
+        <v>-101.61</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>54649.192344</v>
+        <v>54649.192344000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>15.180331</v>
+        <v>15.180331000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1246.280000</v>
+        <v>1246.28</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.261000</v>
+        <v>-121.261</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>54660.351332</v>
+        <v>54660.351331999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.183431</v>
+        <v>15.183431000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1254.790000</v>
+        <v>1254.79</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.913000</v>
+        <v>-138.91300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>54671.693813</v>
+        <v>54671.693812999998</v>
       </c>
       <c r="BE2" s="1">
         <v>15.186582</v>
       </c>
       <c r="BF2" s="1">
-        <v>1295.460000</v>
+        <v>1295.46</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.439000</v>
+        <v>-221.43899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>54682.695116</v>
+        <v>54682.695116000003</v>
       </c>
       <c r="BJ2" s="1">
         <v>15.189638</v>
       </c>
       <c r="BK2" s="1">
-        <v>1365.920000</v>
+        <v>1365.92</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.219000</v>
+        <v>-358.21899999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>54693.735031</v>
+        <v>54693.735030999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.192704</v>
+        <v>15.192704000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1481.430000</v>
+        <v>1481.43</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.407000</v>
+        <v>-580.40700000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>54704.189958</v>
+        <v>54704.189958000003</v>
       </c>
       <c r="BT2" s="1">
         <v>15.195608</v>
       </c>
       <c r="BU2" s="1">
-        <v>1614.420000</v>
+        <v>1614.42</v>
       </c>
       <c r="BV2" s="1">
-        <v>-831.287000</v>
+        <v>-831.28700000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>54714.835836</v>
+        <v>54714.835835999998</v>
       </c>
       <c r="BY2" s="1">
         <v>15.198566</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1767.960000</v>
+        <v>1767.96</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1102.480000</v>
+        <v>-1102.48</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>54725.736413</v>
+        <v>54725.736412999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.201593</v>
+        <v>15.201593000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2188.660000</v>
+        <v>2188.66</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1760.200000</v>
+        <v>-1760.2</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>54556.652719</v>
+        <v>54556.652718999998</v>
       </c>
       <c r="B3" s="1">
         <v>15.154626</v>
       </c>
       <c r="C3" s="1">
-        <v>1146.930000</v>
+        <v>1146.93</v>
       </c>
       <c r="D3" s="1">
-        <v>-254.086000</v>
+        <v>-254.08600000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>54566.730928</v>
+        <v>54566.730927999997</v>
       </c>
       <c r="G3" s="1">
         <v>15.157425</v>
       </c>
       <c r="H3" s="1">
-        <v>1167.950000</v>
+        <v>1167.95</v>
       </c>
       <c r="I3" s="1">
-        <v>-213.337000</v>
+        <v>-213.33699999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>54576.884840</v>
+        <v>54576.884839999999</v>
       </c>
       <c r="L3" s="1">
-        <v>15.160246</v>
+        <v>15.160246000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1194.370000</v>
+        <v>1194.3699999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.794000</v>
+        <v>-148.79400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>54586.675591</v>
+        <v>54586.675590999999</v>
       </c>
       <c r="Q3" s="1">
         <v>15.162965</v>
       </c>
       <c r="R3" s="1">
-        <v>1202.060000</v>
+        <v>1202.06</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.997000</v>
+        <v>-126.997</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>54596.899593</v>
+        <v>54596.899593000002</v>
       </c>
       <c r="V3" s="1">
-        <v>15.165805</v>
+        <v>15.165805000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1209.330000</v>
+        <v>1209.33</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.610000</v>
+        <v>-106.61</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>54607.021946</v>
+        <v>54607.021946000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.168617</v>
+        <v>15.168616999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1216.570000</v>
+        <v>1216.57</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.943700</v>
+        <v>-89.943700000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>54617.925005</v>
+        <v>54617.925004999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>15.171646</v>
+        <v>15.171646000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1221.230000</v>
+        <v>1221.23</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.785500</v>
+        <v>-85.785499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>54628.071166</v>
+        <v>54628.071166000002</v>
       </c>
       <c r="AK3" s="1">
         <v>15.174464</v>
       </c>
       <c r="AL3" s="1">
-        <v>1228.260000</v>
+        <v>1228.26</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.399000</v>
+        <v>-89.399000000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>54638.627025</v>
+        <v>54638.627025000002</v>
       </c>
       <c r="AP3" s="1">
         <v>15.177396</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1236.210000</v>
+        <v>1236.21</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.608000</v>
+        <v>-101.608</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>54649.559844</v>
+        <v>54649.559844000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.180433</v>
+        <v>15.180433000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1246.290000</v>
+        <v>1246.29</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.242000</v>
+        <v>-121.242</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>54660.736197</v>
+        <v>54660.736196999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>15.183538</v>
       </c>
       <c r="BA3" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.897000</v>
+        <v>-138.89699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>54672.424421</v>
+        <v>54672.424421000003</v>
       </c>
       <c r="BE3" s="1">
         <v>15.186785</v>
       </c>
       <c r="BF3" s="1">
-        <v>1295.430000</v>
+        <v>1295.43</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.409000</v>
+        <v>-221.40899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>54683.450021</v>
+        <v>54683.450020999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>15.189847</v>
       </c>
       <c r="BK3" s="1">
-        <v>1365.880000</v>
+        <v>1365.88</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.182000</v>
+        <v>-358.18200000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>54694.174320</v>
+        <v>54694.174319999998</v>
       </c>
       <c r="BO3" s="1">
         <v>15.192826</v>
       </c>
       <c r="BP3" s="1">
-        <v>1481.390000</v>
+        <v>1481.39</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.385000</v>
+        <v>-580.38499999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>54704.613289</v>
+        <v>54704.613289000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.195726</v>
+        <v>15.195726000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1614.590000</v>
+        <v>1614.59</v>
       </c>
       <c r="BV3" s="1">
-        <v>-831.308000</v>
+        <v>-831.30799999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>54715.317452</v>
+        <v>54715.317452000003</v>
       </c>
       <c r="BY3" s="1">
         <v>15.198699</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1768.020000</v>
+        <v>1768.02</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1102.200000</v>
+        <v>-1102.2</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>54726.641612</v>
+        <v>54726.641611999999</v>
       </c>
       <c r="CD3" s="1">
         <v>15.201845</v>
       </c>
       <c r="CE3" s="1">
-        <v>2187.610000</v>
+        <v>2187.61</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1757.990000</v>
+        <v>-1757.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>54556.992486</v>
+        <v>54556.992486000003</v>
       </c>
       <c r="B4" s="1">
-        <v>15.154720</v>
+        <v>15.154719999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1147.120000</v>
+        <v>1147.1199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-254.483000</v>
+        <v>-254.483</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>54567.076180</v>
+        <v>54567.076179999996</v>
       </c>
       <c r="G4" s="1">
-        <v>15.157521</v>
+        <v>15.157520999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1167.320000</v>
+        <v>1167.32</v>
       </c>
       <c r="I4" s="1">
-        <v>-213.407000</v>
+        <v>-213.40700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>54577.233717</v>
+        <v>54577.233717000003</v>
       </c>
       <c r="L4" s="1">
-        <v>15.160343</v>
+        <v>15.160342999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1194.370000</v>
+        <v>1194.3699999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.649000</v>
+        <v>-148.649</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>54587.094677</v>
+        <v>54587.094677000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.163082</v>
+        <v>15.163081999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1202.070000</v>
+        <v>1202.07</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.032000</v>
+        <v>-127.032</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>54597.326648</v>
+        <v>54597.326648000002</v>
       </c>
       <c r="V4" s="1">
         <v>15.165924</v>
       </c>
       <c r="W4" s="1">
-        <v>1209.170000</v>
+        <v>1209.17</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.529000</v>
+        <v>-106.529</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>54607.369184</v>
+        <v>54607.369184000003</v>
       </c>
       <c r="AA4" s="1">
         <v>15.168714</v>
       </c>
       <c r="AB4" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.929600</v>
+        <v>-89.929599999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>54618.267741</v>
+        <v>54618.267741000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>15.171741</v>
+        <v>15.171741000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1221.180000</v>
+        <v>1221.18</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.707400</v>
+        <v>-85.707400000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>54628.413903</v>
+        <v>54628.413903000001</v>
       </c>
       <c r="AK4" s="1">
         <v>15.174559</v>
       </c>
       <c r="AL4" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.388500</v>
+        <v>-89.388499999999993</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>54638.987648</v>
+        <v>54638.987648000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.177497</v>
+        <v>15.177497000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1236.210000</v>
+        <v>1236.21</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.618000</v>
+        <v>-101.61799999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>54649.921426</v>
+        <v>54649.921426000001</v>
       </c>
       <c r="AU4" s="1">
         <v>15.180534</v>
       </c>
       <c r="AV4" s="1">
-        <v>1246.280000</v>
+        <v>1246.28</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.233000</v>
+        <v>-121.233</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>54661.454434</v>
+        <v>54661.454433999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.183737</v>
+        <v>15.183737000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.911000</v>
+        <v>-138.911</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>54672.786003</v>
+        <v>54672.786003000001</v>
       </c>
       <c r="BE4" s="1">
         <v>15.186885</v>
       </c>
       <c r="BF4" s="1">
-        <v>1295.430000</v>
+        <v>1295.43</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.438000</v>
+        <v>-221.43799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>54683.850757</v>
@@ -1175,13 +1591,13 @@
         <v>15.189959</v>
       </c>
       <c r="BK4" s="1">
-        <v>1365.940000</v>
+        <v>1365.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-358.213000</v>
+        <v>-358.21300000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>54694.591622</v>
@@ -1190,891 +1606,891 @@
         <v>15.192942</v>
       </c>
       <c r="BP4" s="1">
-        <v>1481.410000</v>
+        <v>1481.41</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.349000</v>
+        <v>-580.34900000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>54705.350379</v>
+        <v>54705.350379000003</v>
       </c>
       <c r="BT4" s="1">
         <v>15.195931</v>
       </c>
       <c r="BU4" s="1">
-        <v>1614.570000</v>
+        <v>1614.57</v>
       </c>
       <c r="BV4" s="1">
-        <v>-831.270000</v>
+        <v>-831.27</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>54716.053054</v>
+        <v>54716.053054000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.198904</v>
+        <v>15.198904000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1767.930000</v>
+        <v>1767.93</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1102.570000</v>
+        <v>-1102.57</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>54726.863821</v>
+        <v>54726.863820999999</v>
       </c>
       <c r="CD4" s="1">
         <v>15.201907</v>
       </c>
       <c r="CE4" s="1">
-        <v>2188.340000</v>
+        <v>2188.34</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1759.920000</v>
+        <v>-1759.92</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>54557.335710</v>
+        <v>54557.335709999999</v>
       </c>
       <c r="B5" s="1">
-        <v>15.154815</v>
+        <v>15.154814999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1146.980000</v>
+        <v>1146.98</v>
       </c>
       <c r="D5" s="1">
-        <v>-254.201000</v>
+        <v>-254.20099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>54567.490302</v>
+        <v>54567.490301999998</v>
       </c>
       <c r="G5" s="1">
         <v>15.157636</v>
       </c>
       <c r="H5" s="1">
-        <v>1167.600000</v>
+        <v>1167.5999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-214.005000</v>
+        <v>-214.005</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>54577.658819</v>
+        <v>54577.658818999997</v>
       </c>
       <c r="L5" s="1">
         <v>15.160461</v>
       </c>
       <c r="M5" s="1">
-        <v>1194.450000</v>
+        <v>1194.45</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.635000</v>
+        <v>-148.63499999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>54587.374952</v>
+        <v>54587.374951999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>15.163160</v>
+        <v>15.16316</v>
       </c>
       <c r="R5" s="1">
-        <v>1202.000000</v>
+        <v>1202</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.018000</v>
+        <v>-127.018</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>54597.625735</v>
+        <v>54597.625735000001</v>
       </c>
       <c r="V5" s="1">
         <v>15.166007</v>
       </c>
       <c r="W5" s="1">
-        <v>1209.350000</v>
+        <v>1209.3499999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.517000</v>
+        <v>-106.517</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>54607.718825</v>
+        <v>54607.718825000004</v>
       </c>
       <c r="AA5" s="1">
         <v>15.168811</v>
       </c>
       <c r="AB5" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.882600</v>
+        <v>-89.882599999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>54618.611964</v>
+        <v>54618.611964000003</v>
       </c>
       <c r="AF5" s="1">
         <v>15.171837</v>
       </c>
       <c r="AG5" s="1">
-        <v>1221.190000</v>
+        <v>1221.19</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.543400</v>
+        <v>-85.543400000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>54628.759614</v>
+        <v>54628.759614000002</v>
       </c>
       <c r="AK5" s="1">
         <v>15.174655</v>
       </c>
       <c r="AL5" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.405400</v>
+        <v>-89.4054</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>54639.706319</v>
+        <v>54639.706318999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.177696</v>
+        <v>15.177695999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1236.220000</v>
+        <v>1236.22</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.628000</v>
+        <v>-101.628</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>54650.648561</v>
+        <v>54650.648561000002</v>
       </c>
       <c r="AU5" s="1">
         <v>15.180736</v>
       </c>
       <c r="AV5" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.227000</v>
+        <v>-121.227</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>54661.813507</v>
+        <v>54661.813506999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>15.183837</v>
       </c>
       <c r="BA5" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.922000</v>
+        <v>-138.922</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>54673.146135</v>
+        <v>54673.146135000003</v>
       </c>
       <c r="BE5" s="1">
         <v>15.186985</v>
       </c>
       <c r="BF5" s="1">
-        <v>1295.460000</v>
+        <v>1295.46</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.422000</v>
+        <v>-221.422</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>54684.225733</v>
+        <v>54684.225732999999</v>
       </c>
       <c r="BJ5" s="1">
         <v>15.190063</v>
       </c>
       <c r="BK5" s="1">
-        <v>1365.940000</v>
+        <v>1365.94</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.167000</v>
+        <v>-358.16699999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>54695.297456</v>
       </c>
       <c r="BO5" s="1">
-        <v>15.193138</v>
+        <v>15.193137999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1481.410000</v>
+        <v>1481.41</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.366000</v>
+        <v>-580.36599999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>54705.466410</v>
+        <v>54705.466410000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>15.195963</v>
+        <v>15.195963000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1614.670000</v>
+        <v>1614.67</v>
       </c>
       <c r="BV5" s="1">
-        <v>-831.304000</v>
+        <v>-831.30399999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>54716.179002</v>
+        <v>54716.179001999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>15.198939</v>
+        <v>15.198938999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1768.070000</v>
+        <v>1768.07</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1102.570000</v>
+        <v>-1102.57</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>54727.378668</v>
+        <v>54727.378667999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>15.202050</v>
+        <v>15.20205</v>
       </c>
       <c r="CE5" s="1">
-        <v>2187.740000</v>
+        <v>2187.7399999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1759.470000</v>
+        <v>-1759.47</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>54557.767760</v>
+        <v>54557.767760000002</v>
       </c>
       <c r="B6" s="1">
         <v>15.154935</v>
       </c>
       <c r="C6" s="1">
-        <v>1147.120000</v>
+        <v>1147.1199999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-254.283000</v>
+        <v>-254.28299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>54567.771070</v>
+        <v>54567.771070000003</v>
       </c>
       <c r="G6" s="1">
         <v>15.157714</v>
       </c>
       <c r="H6" s="1">
-        <v>1167.470000</v>
+        <v>1167.47</v>
       </c>
       <c r="I6" s="1">
-        <v>-212.651000</v>
+        <v>-212.65100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>54577.925633</v>
+        <v>54577.925632999999</v>
       </c>
       <c r="L6" s="1">
-        <v>15.160535</v>
+        <v>15.160534999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1194.270000</v>
+        <v>1194.27</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.470000</v>
+        <v>-148.47</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>54587.721656</v>
+        <v>54587.721656000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>15.163256</v>
+        <v>15.163256000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1202.020000</v>
+        <v>1202.02</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.007000</v>
+        <v>-127.00700000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>54597.928792</v>
+        <v>54597.928791999999</v>
       </c>
       <c r="V6" s="1">
         <v>15.166091</v>
       </c>
       <c r="W6" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.653000</v>
+        <v>-106.65300000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>54608.065529</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.168907</v>
+        <v>15.168907000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.948000</v>
+        <v>-89.947999999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>54619.297932</v>
+        <v>54619.297932000001</v>
       </c>
       <c r="AF6" s="1">
         <v>15.172027</v>
       </c>
       <c r="AG6" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.787000</v>
+        <v>-85.787000000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>54629.459997</v>
+        <v>54629.459996999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>15.174850</v>
+        <v>15.174849999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.393600</v>
+        <v>-89.393600000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>54640.067408</v>
+        <v>54640.067408000003</v>
       </c>
       <c r="AP6" s="1">
         <v>15.177797</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1236.200000</v>
+        <v>1236.2</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.634000</v>
+        <v>-101.634</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>54651.037952</v>
+        <v>54651.037951999999</v>
       </c>
       <c r="AU6" s="1">
         <v>15.180844</v>
       </c>
       <c r="AV6" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.226000</v>
+        <v>-121.226</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>54662.172609</v>
+        <v>54662.172609000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.183937</v>
       </c>
       <c r="BA6" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.919000</v>
+        <v>-138.91900000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>54673.824130</v>
+        <v>54673.824130000001</v>
       </c>
       <c r="BE6" s="1">
         <v>15.187173</v>
       </c>
       <c r="BF6" s="1">
-        <v>1295.450000</v>
+        <v>1295.45</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.441000</v>
+        <v>-221.441</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>54684.911204</v>
+        <v>54684.911204000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>15.190253</v>
       </c>
       <c r="BK6" s="1">
-        <v>1365.900000</v>
+        <v>1365.9</v>
       </c>
       <c r="BL6" s="1">
-        <v>-358.183000</v>
+        <v>-358.18299999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>54695.412501</v>
+        <v>54695.412500999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>15.193170</v>
+        <v>15.19317</v>
       </c>
       <c r="BP6" s="1">
-        <v>1481.380000</v>
+        <v>1481.38</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.337000</v>
+        <v>-580.33699999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>54705.906869</v>
+        <v>54705.906868999999</v>
       </c>
       <c r="BT6" s="1">
         <v>15.196085</v>
       </c>
       <c r="BU6" s="1">
-        <v>1614.690000</v>
+        <v>1614.69</v>
       </c>
       <c r="BV6" s="1">
-        <v>-831.242000</v>
+        <v>-831.24199999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>54716.608074</v>
+        <v>54716.608074000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>15.199058</v>
+        <v>15.199058000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1767.840000</v>
+        <v>1767.84</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1102.270000</v>
+        <v>-1102.27</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>54727.933196</v>
+        <v>54727.933195999998</v>
       </c>
       <c r="CD6" s="1">
         <v>15.202204</v>
       </c>
       <c r="CE6" s="1">
-        <v>2188.200000</v>
+        <v>2188.1999999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1757.710000</v>
+        <v>-1757.71</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>54558.035067</v>
+        <v>54558.035066999997</v>
       </c>
       <c r="B7" s="1">
-        <v>15.155010</v>
+        <v>15.155010000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1147.000000</v>
+        <v>1147</v>
       </c>
       <c r="D7" s="1">
-        <v>-254.222000</v>
+        <v>-254.22200000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>54568.116750</v>
+        <v>54568.116750000001</v>
       </c>
       <c r="G7" s="1">
-        <v>15.157810</v>
+        <v>15.15781</v>
       </c>
       <c r="H7" s="1">
-        <v>1167.210000</v>
+        <v>1167.21</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.773000</v>
+        <v>-213.773</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>54578.273330</v>
+        <v>54578.273330000004</v>
       </c>
       <c r="L7" s="1">
         <v>15.160631</v>
       </c>
       <c r="M7" s="1">
-        <v>1194.470000</v>
+        <v>1194.47</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.827000</v>
+        <v>-148.827</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>54588.071795</v>
+        <v>54588.071795000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.163353</v>
+        <v>15.163353000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1202.140000</v>
+        <v>1202.1400000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.026000</v>
+        <v>-127.026</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>54598.565157</v>
+        <v>54598.565156999997</v>
       </c>
       <c r="V7" s="1">
-        <v>15.166268</v>
+        <v>15.166268000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1209.280000</v>
+        <v>1209.28</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.687000</v>
+        <v>-106.687</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>54608.764393</v>
+        <v>54608.764392999998</v>
       </c>
       <c r="AA7" s="1">
         <v>15.169101</v>
       </c>
       <c r="AB7" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.884800</v>
+        <v>-89.884799999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>54619.644633</v>
+        <v>54619.644633000004</v>
       </c>
       <c r="AF7" s="1">
         <v>15.172124</v>
       </c>
       <c r="AG7" s="1">
-        <v>1221.140000</v>
+        <v>1221.1400000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.696500</v>
+        <v>-85.6965</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>54629.806172</v>
+        <v>54629.806171999997</v>
       </c>
       <c r="AK7" s="1">
         <v>15.174946</v>
       </c>
       <c r="AL7" s="1">
-        <v>1228.280000</v>
+        <v>1228.28</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.400100</v>
+        <v>-89.400099999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>54640.427006</v>
+        <v>54640.427005999998</v>
       </c>
       <c r="AP7" s="1">
         <v>15.177896</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1236.190000</v>
+        <v>1236.19</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.622000</v>
+        <v>-101.622</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>54651.718962</v>
+        <v>54651.718961999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.181033</v>
+        <v>15.181032999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1246.280000</v>
+        <v>1246.28</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.255000</v>
+        <v>-121.255</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>54662.848197</v>
+        <v>54662.848196999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.184124</v>
+        <v>15.184124000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.916000</v>
+        <v>-138.916</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>54674.258626</v>
+        <v>54674.258626000003</v>
       </c>
       <c r="BE7" s="1">
         <v>15.187294</v>
       </c>
       <c r="BF7" s="1">
-        <v>1295.460000</v>
+        <v>1295.46</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.432000</v>
+        <v>-221.43199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>54685.017881</v>
       </c>
       <c r="BJ7" s="1">
-        <v>15.190283</v>
+        <v>15.190283000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1365.900000</v>
+        <v>1365.9</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.179000</v>
+        <v>-358.17899999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>54695.836086</v>
+        <v>54695.836086000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>15.193288</v>
+        <v>15.193288000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1481.420000</v>
+        <v>1481.42</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.383000</v>
+        <v>-580.38300000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>54706.319565</v>
+        <v>54706.319564999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>15.196200</v>
+        <v>15.196199999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1614.810000</v>
+        <v>1614.81</v>
       </c>
       <c r="BV7" s="1">
-        <v>-831.175000</v>
+        <v>-831.17499999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>54717.023194</v>
+        <v>54717.023194000001</v>
       </c>
       <c r="BY7" s="1">
         <v>15.199173</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1768.000000</v>
+        <v>1768</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1102.550000</v>
+        <v>-1102.55</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>54728.461465</v>
       </c>
       <c r="CD7" s="1">
-        <v>15.202350</v>
+        <v>15.202349999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2187.920000</v>
+        <v>2187.92</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1759.860000</v>
+        <v>-1759.86</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>54558.376811</v>
+        <v>54558.376811000002</v>
       </c>
       <c r="B8" s="1">
-        <v>15.155105</v>
+        <v>15.155105000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1146.940000</v>
+        <v>1146.94</v>
       </c>
       <c r="D8" s="1">
-        <v>-254.470000</v>
+        <v>-254.47</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>54568.460509</v>
+        <v>54568.460508999997</v>
       </c>
       <c r="G8" s="1">
-        <v>15.157906</v>
+        <v>15.157906000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1167.790000</v>
+        <v>1167.79</v>
       </c>
       <c r="I8" s="1">
-        <v>-213.774000</v>
+        <v>-213.774</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>54578.617060</v>
+        <v>54578.617059999997</v>
       </c>
       <c r="L8" s="1">
         <v>15.160727</v>
       </c>
       <c r="M8" s="1">
-        <v>1194.480000</v>
+        <v>1194.48</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.633000</v>
+        <v>-148.63300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>54588.768707</v>
+        <v>54588.768707000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>15.163547</v>
+        <v>15.163546999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.034000</v>
+        <v>-127.03400000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>54598.959509</v>
@@ -2083,133 +2499,133 @@
         <v>15.166378</v>
       </c>
       <c r="W8" s="1">
-        <v>1209.330000</v>
+        <v>1209.33</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.461000</v>
+        <v>-106.461</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>54609.114071</v>
+        <v>54609.114071000004</v>
       </c>
       <c r="AA8" s="1">
         <v>15.169198</v>
       </c>
       <c r="AB8" s="1">
-        <v>1216.580000</v>
+        <v>1216.58</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.894300</v>
+        <v>-89.894300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>54619.986875</v>
+        <v>54619.986875000002</v>
       </c>
       <c r="AF8" s="1">
         <v>15.172219</v>
       </c>
       <c r="AG8" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.679600</v>
+        <v>-85.679599999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>54630.158333</v>
+        <v>54630.158332999999</v>
       </c>
       <c r="AK8" s="1">
         <v>15.175044</v>
       </c>
       <c r="AL8" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.389600</v>
+        <v>-89.389600000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>54641.097597</v>
       </c>
       <c r="AP8" s="1">
-        <v>15.178083</v>
+        <v>15.178083000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1236.230000</v>
+        <v>1236.23</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.591000</v>
+        <v>-101.59099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>54652.164334</v>
+        <v>54652.164334000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>15.181157</v>
+        <v>15.181157000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1246.280000</v>
+        <v>1246.28</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.209000</v>
+        <v>-121.209</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>54663.251942</v>
+        <v>54663.251942000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.184237</v>
       </c>
       <c r="BA8" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.930000</v>
+        <v>-138.93</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>54674.621201</v>
+        <v>54674.621201000002</v>
       </c>
       <c r="BE8" s="1">
         <v>15.187395</v>
       </c>
       <c r="BF8" s="1">
-        <v>1295.450000</v>
+        <v>1295.45</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.404000</v>
+        <v>-221.404</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>54685.376946</v>
+        <v>54685.376945999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.190382</v>
       </c>
       <c r="BK8" s="1">
-        <v>1365.910000</v>
+        <v>1365.91</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.249000</v>
+        <v>-358.24900000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>54696.231924</v>
@@ -2218,225 +2634,225 @@
         <v>15.193398</v>
       </c>
       <c r="BP8" s="1">
-        <v>1481.400000</v>
+        <v>1481.4</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.380000</v>
+        <v>-580.38</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>54706.748567</v>
+        <v>54706.748567000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>15.196319</v>
+        <v>15.196319000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1614.790000</v>
+        <v>1614.79</v>
       </c>
       <c r="BV8" s="1">
-        <v>-831.154000</v>
+        <v>-831.154</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>54717.473096</v>
+        <v>54717.473096000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>15.199298</v>
+        <v>15.199298000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1768.180000</v>
+        <v>1768.18</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1102.380000</v>
+        <v>-1102.3800000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>54728.981273</v>
+        <v>54728.981272999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>15.202495</v>
+        <v>15.202495000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2189.790000</v>
+        <v>2189.79</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1758.180000</v>
+        <v>-1758.18</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>54558.721034</v>
+        <v>54558.721034000002</v>
       </c>
       <c r="B9" s="1">
-        <v>15.155200</v>
+        <v>15.155200000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1147.010000</v>
+        <v>1147.01</v>
       </c>
       <c r="D9" s="1">
-        <v>-254.309000</v>
+        <v>-254.309</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>54569.149422</v>
+        <v>54569.149422000002</v>
       </c>
       <c r="G9" s="1">
         <v>15.158097</v>
       </c>
       <c r="H9" s="1">
-        <v>1167.420000</v>
+        <v>1167.42</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.556000</v>
+        <v>-213.55600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>54579.312944</v>
+        <v>54579.312943999998</v>
       </c>
       <c r="L9" s="1">
-        <v>15.160920</v>
+        <v>15.160920000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1194.370000</v>
+        <v>1194.3699999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.465000</v>
+        <v>-148.465</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>54589.116886</v>
+        <v>54589.116886000003</v>
       </c>
       <c r="Q9" s="1">
         <v>15.163644</v>
       </c>
       <c r="R9" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.075000</v>
+        <v>-127.075</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>54599.304724</v>
+        <v>54599.304724000001</v>
       </c>
       <c r="V9" s="1">
-        <v>15.166474</v>
+        <v>15.166473999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1209.170000</v>
+        <v>1209.17</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.485000</v>
+        <v>-106.485</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>54609.459785</v>
+        <v>54609.459784999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.169294</v>
+        <v>15.169294000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.987000</v>
+        <v>-89.986999999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>54620.637160</v>
+        <v>54620.637159999998</v>
       </c>
       <c r="AF9" s="1">
         <v>15.172399</v>
       </c>
       <c r="AG9" s="1">
-        <v>1221.260000</v>
+        <v>1221.26</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.739500</v>
+        <v>-85.739500000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>54630.820986</v>
+        <v>54630.820985999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>15.175228</v>
+        <v>15.175228000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1228.260000</v>
+        <v>1228.26</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.415000</v>
+        <v>-89.415000000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>54641.535564</v>
+        <v>54641.535563999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>15.178204</v>
+        <v>15.178203999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1236.220000</v>
+        <v>1236.22</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.603000</v>
+        <v>-101.60299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>54652.530878</v>
+        <v>54652.530877999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.181259</v>
+        <v>15.181259000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1246.240000</v>
+        <v>1246.24</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.261000</v>
+        <v>-121.261</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>54663.629888</v>
+        <v>54663.629888000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.184342</v>
+        <v>15.184341999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1254.790000</v>
+        <v>1254.79</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.931000</v>
+        <v>-138.93100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>54674.982784</v>
@@ -2445,195 +2861,195 @@
         <v>15.187495</v>
       </c>
       <c r="BF9" s="1">
-        <v>1295.440000</v>
+        <v>1295.44</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.428000</v>
+        <v>-221.428</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>54685.754404</v>
+        <v>54685.754403999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.190487</v>
+        <v>15.190486999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1365.960000</v>
+        <v>1365.96</v>
       </c>
       <c r="BL9" s="1">
-        <v>-358.216000</v>
+        <v>-358.21600000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>54696.654020</v>
+        <v>54696.654020000002</v>
       </c>
       <c r="BO9" s="1">
         <v>15.193515</v>
       </c>
       <c r="BP9" s="1">
-        <v>1481.370000</v>
+        <v>1481.37</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.357000</v>
+        <v>-580.35699999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>54707.176614</v>
+        <v>54707.176614000004</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.196438</v>
+        <v>15.196438000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1614.880000</v>
+        <v>1614.88</v>
       </c>
       <c r="BV9" s="1">
-        <v>-831.114000</v>
+        <v>-831.11400000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>54717.893673</v>
+        <v>54717.893672999999</v>
       </c>
       <c r="BY9" s="1">
         <v>15.199415</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1768.110000</v>
+        <v>1768.11</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1102.410000</v>
+        <v>-1102.4100000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>54729.522377</v>
+        <v>54729.522377000001</v>
       </c>
       <c r="CD9" s="1">
         <v>15.202645</v>
       </c>
       <c r="CE9" s="1">
-        <v>2187.420000</v>
+        <v>2187.42</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1759.390000</v>
+        <v>-1759.39</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>54559.398075</v>
+        <v>54559.398074999997</v>
       </c>
       <c r="B10" s="1">
         <v>15.155388</v>
       </c>
       <c r="C10" s="1">
-        <v>1147.020000</v>
+        <v>1147.02</v>
       </c>
       <c r="D10" s="1">
-        <v>-254.237000</v>
+        <v>-254.23699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>54569.491199</v>
+        <v>54569.491198999996</v>
       </c>
       <c r="G10" s="1">
         <v>15.158192</v>
       </c>
       <c r="H10" s="1">
-        <v>1167.180000</v>
+        <v>1167.18</v>
       </c>
       <c r="I10" s="1">
-        <v>-213.562000</v>
+        <v>-213.56200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>54579.662126</v>
+        <v>54579.662126000003</v>
       </c>
       <c r="L10" s="1">
-        <v>15.161017</v>
+        <v>15.161016999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1194.500000</v>
+        <v>1194.5</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.451000</v>
+        <v>-148.45099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>54589.466052</v>
+        <v>54589.466052000003</v>
       </c>
       <c r="Q10" s="1">
         <v>15.163741</v>
       </c>
       <c r="R10" s="1">
-        <v>1202.030000</v>
+        <v>1202.03</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.052000</v>
+        <v>-127.05200000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>54599.972805</v>
+        <v>54599.972804999998</v>
       </c>
       <c r="V10" s="1">
-        <v>15.166659</v>
+        <v>15.166658999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1209.430000</v>
+        <v>1209.43</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.522000</v>
+        <v>-106.52200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>54610.115193</v>
+        <v>54610.115192999998</v>
       </c>
       <c r="AA10" s="1">
         <v>15.169476</v>
       </c>
       <c r="AB10" s="1">
-        <v>1216.580000</v>
+        <v>1216.58</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.947300</v>
+        <v>-89.947299999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>54621.017065</v>
       </c>
       <c r="AF10" s="1">
-        <v>15.172505</v>
+        <v>15.172504999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.839200</v>
+        <v>-85.839200000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>54631.204394</v>
@@ -2642,225 +3058,225 @@
         <v>15.175335</v>
       </c>
       <c r="AL10" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.417200</v>
+        <v>-89.417199999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>54641.896156</v>
+        <v>54641.896156000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>15.178304</v>
+        <v>15.178304000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1236.190000</v>
+        <v>1236.19</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.591000</v>
+        <v>-101.59099999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>54652.891502</v>
+        <v>54652.891501999999</v>
       </c>
       <c r="AU10" s="1">
         <v>15.181359</v>
       </c>
       <c r="AV10" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.244000</v>
+        <v>-121.244</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>54664.005856</v>
+        <v>54664.005856000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>15.184446</v>
+        <v>15.184445999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.911000</v>
+        <v>-138.911</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>54675.410863</v>
+        <v>54675.410862999997</v>
       </c>
       <c r="BE10" s="1">
         <v>15.187614</v>
       </c>
       <c r="BF10" s="1">
-        <v>1295.440000</v>
+        <v>1295.44</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.417000</v>
+        <v>-221.417</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>54686.264785</v>
+        <v>54686.264784999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.190629</v>
+        <v>15.190628999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1365.910000</v>
+        <v>1365.91</v>
       </c>
       <c r="BL10" s="1">
-        <v>-358.199000</v>
+        <v>-358.19900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>54697.051283</v>
+        <v>54697.051283000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.193625</v>
+        <v>15.193625000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1481.450000</v>
+        <v>1481.45</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.380000</v>
+        <v>-580.38</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>54707.587333</v>
+        <v>54707.587333000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.196552</v>
+        <v>15.196552000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1614.960000</v>
+        <v>1614.96</v>
       </c>
       <c r="BV10" s="1">
-        <v>-831.079000</v>
+        <v>-831.07899999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>54718.317786</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.199533</v>
+        <v>15.199533000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1768.110000</v>
+        <v>1768.11</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1102.400000</v>
+        <v>-1102.4000000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>54730.061069</v>
+        <v>54730.061069000003</v>
       </c>
       <c r="CD10" s="1">
         <v>15.202795</v>
       </c>
       <c r="CE10" s="1">
-        <v>2189.740000</v>
+        <v>2189.7399999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1759.630000</v>
+        <v>-1759.63</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>54559.742793</v>
+        <v>54559.742792999998</v>
       </c>
       <c r="B11" s="1">
         <v>15.155484</v>
       </c>
       <c r="C11" s="1">
-        <v>1147.050000</v>
+        <v>1147.05</v>
       </c>
       <c r="D11" s="1">
-        <v>-254.084000</v>
+        <v>-254.084</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>54569.836875</v>
+        <v>54569.836875000001</v>
       </c>
       <c r="G11" s="1">
-        <v>15.158288</v>
+        <v>15.158288000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1168.110000</v>
+        <v>1168.1099999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-212.657000</v>
+        <v>-212.65700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>54580.008340</v>
+        <v>54580.00834</v>
       </c>
       <c r="L11" s="1">
         <v>15.161113</v>
       </c>
       <c r="M11" s="1">
-        <v>1194.390000</v>
+        <v>1194.3900000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.445000</v>
+        <v>-148.44499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>54590.122754</v>
+        <v>54590.122754000004</v>
       </c>
       <c r="Q11" s="1">
         <v>15.163923</v>
       </c>
       <c r="R11" s="1">
-        <v>1202.100000</v>
+        <v>1202.0999999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-126.986000</v>
+        <v>-126.986</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>54600.341332</v>
+        <v>54600.341332000004</v>
       </c>
       <c r="V11" s="1">
-        <v>15.166761</v>
+        <v>15.166760999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1209.290000</v>
+        <v>1209.29</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.521000</v>
+        <v>-106.521</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>54610.505351</v>
@@ -2869,315 +3285,315 @@
         <v>15.169585</v>
       </c>
       <c r="AB11" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.941300</v>
+        <v>-89.941299999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>54621.360808</v>
+        <v>54621.360807999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.172600</v>
+        <v>15.172599999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1221.260000</v>
+        <v>1221.26</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.707800</v>
+        <v>-85.707800000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>54631.550638</v>
+        <v>54631.550638000001</v>
       </c>
       <c r="AK11" s="1">
         <v>15.175431</v>
       </c>
       <c r="AL11" s="1">
-        <v>1228.280000</v>
+        <v>1228.28</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.380600</v>
+        <v>-89.380600000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>54642.256284</v>
+        <v>54642.256284000003</v>
       </c>
       <c r="AP11" s="1">
         <v>15.178405</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1236.200000</v>
+        <v>1236.2</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.620000</v>
+        <v>-101.62</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>54653.324013</v>
+        <v>54653.324012999998</v>
       </c>
       <c r="AU11" s="1">
         <v>15.181479</v>
       </c>
       <c r="AV11" s="1">
-        <v>1246.290000</v>
+        <v>1246.29</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.264000</v>
+        <v>-121.264</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>54664.433416</v>
       </c>
       <c r="AZ11" s="1">
-        <v>15.184565</v>
+        <v>15.184564999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1254.780000</v>
+        <v>1254.78</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.926000</v>
+        <v>-138.92599999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>54675.703969</v>
+        <v>54675.703969000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>15.187696</v>
+        <v>15.187696000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1295.460000</v>
+        <v>1295.46</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.428000</v>
+        <v>-221.428</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>54686.502897</v>
+        <v>54686.502896999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>15.190695</v>
       </c>
       <c r="BK11" s="1">
-        <v>1365.890000</v>
+        <v>1365.89</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.185000</v>
+        <v>-358.185</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>54697.475891</v>
+        <v>54697.475891000002</v>
       </c>
       <c r="BO11" s="1">
         <v>15.193743</v>
       </c>
       <c r="BP11" s="1">
-        <v>1481.390000</v>
+        <v>1481.39</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.388000</v>
+        <v>-580.38800000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>54708.020341</v>
+        <v>54708.020341000003</v>
       </c>
       <c r="BT11" s="1">
         <v>15.196672</v>
       </c>
       <c r="BU11" s="1">
-        <v>1614.940000</v>
+        <v>1614.94</v>
       </c>
       <c r="BV11" s="1">
-        <v>-831.002000</v>
+        <v>-831.00199999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>54718.763686</v>
+        <v>54718.763685999998</v>
       </c>
       <c r="BY11" s="1">
         <v>15.199657</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1767.990000</v>
+        <v>1767.99</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1102.410000</v>
+        <v>-1102.4100000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>54730.601210</v>
+        <v>54730.601210000001</v>
       </c>
       <c r="CD11" s="1">
         <v>15.202945</v>
       </c>
       <c r="CE11" s="1">
-        <v>2187.930000</v>
+        <v>2187.9299999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1757.980000</v>
+        <v>-1757.98</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>54560.086228</v>
       </c>
       <c r="B12" s="1">
-        <v>15.155580</v>
+        <v>15.15558</v>
       </c>
       <c r="C12" s="1">
-        <v>1147.050000</v>
+        <v>1147.05</v>
       </c>
       <c r="D12" s="1">
-        <v>-254.235000</v>
+        <v>-254.23500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>54570.491135</v>
+        <v>54570.491134999997</v>
       </c>
       <c r="G12" s="1">
-        <v>15.158470</v>
+        <v>15.158469999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1167.510000</v>
+        <v>1167.51</v>
       </c>
       <c r="I12" s="1">
-        <v>-212.980000</v>
+        <v>-212.98</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>54580.444813</v>
+        <v>54580.444813000002</v>
       </c>
       <c r="L12" s="1">
         <v>15.161235</v>
       </c>
       <c r="M12" s="1">
-        <v>1194.550000</v>
+        <v>1194.55</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.819000</v>
+        <v>-148.81899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>54590.508640</v>
+        <v>54590.50864</v>
       </c>
       <c r="Q12" s="1">
-        <v>15.164030</v>
+        <v>15.16403</v>
       </c>
       <c r="R12" s="1">
-        <v>1202.090000</v>
+        <v>1202.0899999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-126.971000</v>
+        <v>-126.971</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>54600.689554</v>
+        <v>54600.689553999997</v>
       </c>
       <c r="V12" s="1">
         <v>15.166858</v>
       </c>
       <c r="W12" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.468000</v>
+        <v>-106.468</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>54610.852583</v>
       </c>
       <c r="AA12" s="1">
-        <v>15.169681</v>
+        <v>15.169681000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.832500</v>
+        <v>-89.832499999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>54621.704548</v>
+        <v>54621.704548000002</v>
       </c>
       <c r="AF12" s="1">
         <v>15.172696</v>
       </c>
       <c r="AG12" s="1">
-        <v>1221.250000</v>
+        <v>1221.25</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.738700</v>
+        <v>-85.738699999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>54631.890863</v>
+        <v>54631.890863000001</v>
       </c>
       <c r="AK12" s="1">
         <v>15.175525</v>
       </c>
       <c r="AL12" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.384100</v>
+        <v>-89.384100000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>54642.686318</v>
       </c>
       <c r="AP12" s="1">
-        <v>15.178524</v>
+        <v>15.178523999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1236.220000</v>
+        <v>1236.22</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.593000</v>
+        <v>-101.593</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>54653.622572</v>
@@ -3186,378 +3602,378 @@
         <v>15.181562</v>
       </c>
       <c r="AV12" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.268000</v>
+        <v>-121.268</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>54664.722579</v>
+        <v>54664.722579000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>15.184645</v>
       </c>
       <c r="BA12" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.931000</v>
+        <v>-138.93100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>54676.065055</v>
+        <v>54676.065054999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.187796</v>
+        <v>15.187796000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1295.420000</v>
+        <v>1295.42</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.408000</v>
+        <v>-221.40799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>54686.903138</v>
+        <v>54686.903138000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.190806</v>
       </c>
       <c r="BK12" s="1">
-        <v>1365.920000</v>
+        <v>1365.92</v>
       </c>
       <c r="BL12" s="1">
-        <v>-358.183000</v>
+        <v>-358.18299999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>54697.867203</v>
+        <v>54697.867203000002</v>
       </c>
       <c r="BO12" s="1">
         <v>15.193852</v>
       </c>
       <c r="BP12" s="1">
-        <v>1481.380000</v>
+        <v>1481.38</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.418000</v>
+        <v>-580.41800000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>54708.446373</v>
+        <v>54708.446372999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.196791</v>
+        <v>15.196790999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1614.910000</v>
+        <v>1614.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-830.938000</v>
+        <v>-830.93799999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>54719.199675</v>
+        <v>54719.199675000003</v>
       </c>
       <c r="BY12" s="1">
         <v>15.199778</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1768.000000</v>
+        <v>1768</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1102.350000</v>
+        <v>-1102.3499999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>54731.140361</v>
+        <v>54731.140360999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.203095</v>
+        <v>15.203094999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2188.630000</v>
+        <v>2188.63</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1760.300000</v>
+        <v>-1760.3</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>54560.742232</v>
+        <v>54560.742231999997</v>
       </c>
       <c r="B13" s="1">
-        <v>15.155762</v>
+        <v>15.155761999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1146.960000</v>
+        <v>1146.96</v>
       </c>
       <c r="D13" s="1">
-        <v>-254.186000</v>
+        <v>-254.18600000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>54570.872522</v>
+        <v>54570.872521999998</v>
       </c>
       <c r="G13" s="1">
         <v>15.158576</v>
       </c>
       <c r="H13" s="1">
-        <v>1167.990000</v>
+        <v>1167.99</v>
       </c>
       <c r="I13" s="1">
-        <v>-213.320000</v>
+        <v>-213.32</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>54580.704253</v>
+        <v>54580.704253000004</v>
       </c>
       <c r="L13" s="1">
-        <v>15.161307</v>
+        <v>15.161307000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1194.210000</v>
+        <v>1194.21</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.656000</v>
+        <v>-148.65600000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>54590.859807</v>
+        <v>54590.859807000001</v>
       </c>
       <c r="Q13" s="1">
         <v>15.164128</v>
       </c>
       <c r="R13" s="1">
-        <v>1202.100000</v>
+        <v>1202.0999999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.010000</v>
+        <v>-127.01</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>54601.034778</v>
+        <v>54601.034778000001</v>
       </c>
       <c r="V13" s="1">
         <v>15.166954</v>
       </c>
       <c r="W13" s="1">
-        <v>1209.200000</v>
+        <v>1209.2</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.681000</v>
+        <v>-106.681</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>54611.204213</v>
+        <v>54611.204212999997</v>
       </c>
       <c r="AA13" s="1">
         <v>15.169779</v>
       </c>
       <c r="AB13" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.019300</v>
+        <v>-90.019300000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>54622.128131</v>
+        <v>54622.128130999998</v>
       </c>
       <c r="AF13" s="1">
         <v>15.172813</v>
       </c>
       <c r="AG13" s="1">
-        <v>1221.440000</v>
+        <v>1221.44</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.564800</v>
+        <v>-85.564800000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>54632.303033</v>
+        <v>54632.303032999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>15.175640</v>
+        <v>15.17564</v>
       </c>
       <c r="AL13" s="1">
-        <v>1228.240000</v>
+        <v>1228.24</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.372700</v>
+        <v>-89.372699999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>54642.975482</v>
+        <v>54642.975482000002</v>
       </c>
       <c r="AP13" s="1">
         <v>15.178604</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1236.200000</v>
+        <v>1236.2</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.607000</v>
+        <v>-101.607</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>54653.987628</v>
+        <v>54653.987628000003</v>
       </c>
       <c r="AU13" s="1">
         <v>15.181663</v>
       </c>
       <c r="AV13" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.279000</v>
+        <v>-121.279</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>54665.083629</v>
+        <v>54665.083629000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>15.184745</v>
+        <v>15.184744999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.913000</v>
+        <v>-138.91300000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>54676.428158</v>
+        <v>54676.428158000002</v>
       </c>
       <c r="BE13" s="1">
         <v>15.187897</v>
       </c>
       <c r="BF13" s="1">
-        <v>1295.420000</v>
+        <v>1295.42</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.445000</v>
+        <v>-221.44499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>54687.652128</v>
+        <v>54687.652128000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.191014</v>
+        <v>15.191013999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1365.930000</v>
+        <v>1365.93</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.247000</v>
+        <v>-358.24700000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>54698.289795</v>
+        <v>54698.289794999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.193969</v>
+        <v>15.193968999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1481.460000</v>
+        <v>1481.46</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.357000</v>
+        <v>-580.35699999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>54708.860533</v>
+        <v>54708.860532999999</v>
       </c>
       <c r="BT13" s="1">
         <v>15.196906</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.040000</v>
+        <v>1615.04</v>
       </c>
       <c r="BV13" s="1">
-        <v>-830.917000</v>
+        <v>-830.91700000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>54719.616773</v>
+        <v>54719.616773000002</v>
       </c>
       <c r="BY13" s="1">
         <v>15.199894</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1767.980000</v>
+        <v>1767.98</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1102.400000</v>
+        <v>-1102.4000000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>54731.680470</v>
+        <v>54731.680469999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>15.203245</v>
+        <v>15.203245000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2189.630000</v>
+        <v>2189.63</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1757.620000</v>
+        <v>-1757.62</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>54561.114727</v>
       </c>
@@ -3565,208 +3981,208 @@
         <v>15.155865</v>
       </c>
       <c r="C14" s="1">
-        <v>1147.040000</v>
+        <v>1147.04</v>
       </c>
       <c r="D14" s="1">
-        <v>-254.167000</v>
+        <v>-254.167</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>54571.218536</v>
       </c>
       <c r="G14" s="1">
-        <v>15.158672</v>
+        <v>15.158671999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1168.570000</v>
+        <v>1168.57</v>
       </c>
       <c r="I14" s="1">
-        <v>-212.454000</v>
+        <v>-212.45400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>54581.048444</v>
       </c>
       <c r="L14" s="1">
-        <v>15.161402</v>
+        <v>15.161402000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1194.560000</v>
+        <v>1194.56</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.618000</v>
+        <v>-148.61799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>54591.207505</v>
+        <v>54591.207504999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.164224</v>
+        <v>15.164224000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.081000</v>
+        <v>-127.081</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>54601.457371</v>
+        <v>54601.457370999997</v>
       </c>
       <c r="V14" s="1">
         <v>15.167071</v>
       </c>
       <c r="W14" s="1">
-        <v>1209.190000</v>
+        <v>1209.19</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.749000</v>
+        <v>-106.749</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>54611.639205</v>
+        <v>54611.639204999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.169900</v>
+        <v>15.1699</v>
       </c>
       <c r="AB14" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.986000</v>
+        <v>-89.986000000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>54622.413960</v>
+        <v>54622.413959999998</v>
       </c>
       <c r="AF14" s="1">
         <v>15.172893</v>
       </c>
       <c r="AG14" s="1">
-        <v>1221.220000</v>
+        <v>1221.22</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.785800</v>
+        <v>-85.785799999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>54632.600634</v>
+        <v>54632.600634000002</v>
       </c>
       <c r="AK14" s="1">
         <v>15.175722</v>
       </c>
       <c r="AL14" s="1">
-        <v>1228.280000</v>
+        <v>1228.28</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.400300</v>
+        <v>-89.400300000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>54643.337530</v>
+        <v>54643.337529999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>15.178705</v>
+        <v>15.178705000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1236.240000</v>
+        <v>1236.24</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.617000</v>
+        <v>-101.617</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>54654.349735</v>
+        <v>54654.349735000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>15.181764</v>
+        <v>15.181763999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.257000</v>
+        <v>-121.25700000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>54665.442238</v>
+        <v>54665.442238000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>15.184845</v>
+        <v>15.184844999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1254.770000</v>
+        <v>1254.77</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.901000</v>
+        <v>-138.90100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>54677.148319</v>
       </c>
       <c r="BE14" s="1">
-        <v>15.188097</v>
+        <v>15.188097000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1295.450000</v>
+        <v>1295.45</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.435000</v>
+        <v>-221.435</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>54688.055343</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.191126</v>
+        <v>15.191126000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1365.950000</v>
+        <v>1365.95</v>
       </c>
       <c r="BL14" s="1">
-        <v>-358.207000</v>
+        <v>-358.20699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>54698.689082</v>
+        <v>54698.689081999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>15.194080</v>
+        <v>15.19408</v>
       </c>
       <c r="BP14" s="1">
-        <v>1481.350000</v>
+        <v>1481.35</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.361000</v>
+        <v>-580.36099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>54709.290598</v>
@@ -3775,150 +4191,150 @@
         <v>15.197025</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.020000</v>
+        <v>1615.02</v>
       </c>
       <c r="BV14" s="1">
-        <v>-830.705000</v>
+        <v>-830.70500000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>54720.063669</v>
+        <v>54720.063669000003</v>
       </c>
       <c r="BY14" s="1">
         <v>15.200018</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1768.090000</v>
+        <v>1768.09</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1102.390000</v>
+        <v>-1102.3900000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>54732.534116</v>
+        <v>54732.534116000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.203482</v>
+        <v>15.203481999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2189.720000</v>
+        <v>2189.7199999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1760.000000</v>
+        <v>-1760</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>54561.457494</v>
+        <v>54561.457494000002</v>
       </c>
       <c r="B15" s="1">
-        <v>15.155960</v>
+        <v>15.15596</v>
       </c>
       <c r="C15" s="1">
-        <v>1147.050000</v>
+        <v>1147.05</v>
       </c>
       <c r="D15" s="1">
-        <v>-254.077000</v>
+        <v>-254.077</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>54571.562954</v>
+        <v>54571.562954000001</v>
       </c>
       <c r="G15" s="1">
-        <v>15.158767</v>
+        <v>15.158766999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1167.290000</v>
+        <v>1167.29</v>
       </c>
       <c r="I15" s="1">
-        <v>-213.469000</v>
+        <v>-213.46899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>54581.469090</v>
+        <v>54581.469089999999</v>
       </c>
       <c r="L15" s="1">
         <v>15.161519</v>
       </c>
       <c r="M15" s="1">
-        <v>1194.430000</v>
+        <v>1194.43</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.488000</v>
+        <v>-148.488</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>54591.628608</v>
+        <v>54591.628607999999</v>
       </c>
       <c r="Q15" s="1">
         <v>15.164341</v>
       </c>
       <c r="R15" s="1">
-        <v>1202.020000</v>
+        <v>1202.02</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.016000</v>
+        <v>-127.01600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>54601.732466</v>
+        <v>54601.732466000001</v>
       </c>
       <c r="V15" s="1">
-        <v>15.167148</v>
+        <v>15.167147999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1209.250000</v>
+        <v>1209.25</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.497000</v>
+        <v>-106.497</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>54611.912005</v>
+        <v>54611.912004999998</v>
       </c>
       <c r="AA15" s="1">
         <v>15.169976</v>
       </c>
       <c r="AB15" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.889800</v>
+        <v>-89.889799999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>54622.758021</v>
+        <v>54622.758021000001</v>
       </c>
       <c r="AF15" s="1">
         <v>15.172988</v>
       </c>
       <c r="AG15" s="1">
-        <v>1221.240000</v>
+        <v>1221.24</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.615400</v>
+        <v>-85.615399999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>54632.964731</v>
@@ -3927,43 +4343,43 @@
         <v>15.175824</v>
       </c>
       <c r="AL15" s="1">
-        <v>1228.280000</v>
+        <v>1228.28</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.387100</v>
+        <v>-89.387100000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>54643.699115</v>
+        <v>54643.699115000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>15.178805</v>
+        <v>15.178805000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1236.210000</v>
+        <v>1236.21</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.652000</v>
+        <v>-101.652</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>54655.081839</v>
+        <v>54655.081838999999</v>
       </c>
       <c r="AU15" s="1">
         <v>15.181967</v>
       </c>
       <c r="AV15" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.257000</v>
+        <v>-121.25700000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>54666.159453</v>
@@ -3972,135 +4388,135 @@
         <v>15.185044</v>
       </c>
       <c r="BA15" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.936000</v>
+        <v>-138.93600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>54677.536189</v>
+        <v>54677.536188999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.188204</v>
+        <v>15.188204000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1295.480000</v>
+        <v>1295.48</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.442000</v>
+        <v>-221.44200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>54688.429357</v>
+        <v>54688.429357000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.191230</v>
+        <v>15.191229999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1365.920000</v>
+        <v>1365.92</v>
       </c>
       <c r="BL15" s="1">
-        <v>-358.235000</v>
+        <v>-358.23500000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>54699.111168</v>
+        <v>54699.111168000003</v>
       </c>
       <c r="BO15" s="1">
         <v>15.194198</v>
       </c>
       <c r="BP15" s="1">
-        <v>1481.370000</v>
+        <v>1481.37</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.376000</v>
+        <v>-580.37599999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>54710.028611</v>
+        <v>54710.028611000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>15.197230</v>
+        <v>15.197229999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1615.010000</v>
+        <v>1615.01</v>
       </c>
       <c r="BV15" s="1">
-        <v>-830.681000</v>
+        <v>-830.68100000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>54720.802212</v>
+        <v>54720.802212000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>15.200223</v>
+        <v>15.200222999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1768.080000</v>
+        <v>1768.08</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1102.450000</v>
+        <v>-1102.45</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>54732.757782</v>
+        <v>54732.757782000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>15.203544</v>
+        <v>15.203544000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2189.440000</v>
+        <v>2189.44</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1760.070000</v>
+        <v>-1760.07</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>54561.797718</v>
+        <v>54561.797718000002</v>
       </c>
       <c r="B16" s="1">
         <v>15.156055</v>
       </c>
       <c r="C16" s="1">
-        <v>1147.040000</v>
+        <v>1147.04</v>
       </c>
       <c r="D16" s="1">
-        <v>-254.406000</v>
+        <v>-254.40600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>54571.987566</v>
+        <v>54571.987566000003</v>
       </c>
       <c r="G16" s="1">
         <v>15.158885</v>
       </c>
       <c r="H16" s="1">
-        <v>1167.120000</v>
+        <v>1167.1199999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-213.313000</v>
+        <v>-213.31299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>54581.741853</v>
@@ -4109,300 +4525,300 @@
         <v>15.161595</v>
       </c>
       <c r="M16" s="1">
-        <v>1194.220000</v>
+        <v>1194.22</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.865000</v>
+        <v>-148.86500000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>54591.905870</v>
+        <v>54591.905870000002</v>
       </c>
       <c r="Q16" s="1">
         <v>15.164418</v>
       </c>
       <c r="R16" s="1">
-        <v>1202.020000</v>
+        <v>1202.02</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.082000</v>
+        <v>-127.08199999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>54602.073362</v>
+        <v>54602.073362000003</v>
       </c>
       <c r="V16" s="1">
-        <v>15.167243</v>
+        <v>15.167242999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1209.360000</v>
+        <v>1209.3599999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.613000</v>
+        <v>-106.613</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>54612.256756</v>
+        <v>54612.256756000002</v>
       </c>
       <c r="AA16" s="1">
         <v>15.170071</v>
       </c>
       <c r="AB16" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.869400</v>
+        <v>-89.869399999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>54623.100757</v>
       </c>
       <c r="AF16" s="1">
-        <v>15.173084</v>
+        <v>15.173083999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.708300</v>
+        <v>-85.708299999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>54633.643756</v>
+        <v>54633.643755999998</v>
       </c>
       <c r="AK16" s="1">
         <v>15.176012</v>
       </c>
       <c r="AL16" s="1">
-        <v>1228.260000</v>
+        <v>1228.26</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.403500</v>
+        <v>-89.403499999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>54644.413883</v>
+        <v>54644.413883000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>15.179004</v>
+        <v>15.179004000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1236.220000</v>
+        <v>1236.22</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.599000</v>
+        <v>-101.599</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>54655.471690</v>
+        <v>54655.471689999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>15.182075</v>
+        <v>15.182074999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.209000</v>
+        <v>-121.209</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>54666.517564</v>
+        <v>54666.517564000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>15.185144</v>
+        <v>15.185143999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.918000</v>
+        <v>-138.91800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>54677.897772</v>
+        <v>54677.897771999997</v>
       </c>
       <c r="BE16" s="1">
         <v>15.188305</v>
       </c>
       <c r="BF16" s="1">
-        <v>1295.420000</v>
+        <v>1295.42</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.429000</v>
+        <v>-221.429</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>54689.104910</v>
+        <v>54689.104910000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>15.191418</v>
+        <v>15.191418000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1365.980000</v>
+        <v>1365.98</v>
       </c>
       <c r="BL16" s="1">
-        <v>-358.180000</v>
+        <v>-358.18</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>54699.819457</v>
+        <v>54699.819456999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>15.194394</v>
+        <v>15.194394000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1481.390000</v>
+        <v>1481.39</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.369000</v>
+        <v>-580.36900000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>54710.164019</v>
+        <v>54710.164019000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>15.197268</v>
+        <v>15.197267999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1615.020000</v>
+        <v>1615.02</v>
       </c>
       <c r="BV16" s="1">
-        <v>-830.632000</v>
+        <v>-830.63199999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>54720.959481</v>
+        <v>54720.959480999998</v>
       </c>
       <c r="BY16" s="1">
         <v>15.200267</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1767.840000</v>
+        <v>1767.84</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1102.230000</v>
+        <v>-1102.23</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>54733.278579</v>
+        <v>54733.278578999998</v>
       </c>
       <c r="CD16" s="1">
         <v>15.203688</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.040000</v>
+        <v>2190.04</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1758.000000</v>
+        <v>-1758</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>54562.227290</v>
+        <v>54562.227290000003</v>
       </c>
       <c r="B17" s="1">
         <v>15.156174</v>
       </c>
       <c r="C17" s="1">
-        <v>1146.960000</v>
+        <v>1146.96</v>
       </c>
       <c r="D17" s="1">
-        <v>-254.180000</v>
+        <v>-254.18</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>54572.257848</v>
+        <v>54572.257848000001</v>
       </c>
       <c r="G17" s="1">
         <v>15.158961</v>
       </c>
       <c r="H17" s="1">
-        <v>1167.140000</v>
+        <v>1167.1400000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-212.760000</v>
+        <v>-212.76</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>54582.091035</v>
+        <v>54582.091034999998</v>
       </c>
       <c r="L17" s="1">
         <v>15.161692</v>
       </c>
       <c r="M17" s="1">
-        <v>1194.370000</v>
+        <v>1194.3699999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.605000</v>
+        <v>-148.60499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>54592.253598</v>
+        <v>54592.253598000003</v>
       </c>
       <c r="Q17" s="1">
         <v>15.164515</v>
       </c>
       <c r="R17" s="1">
-        <v>1202.060000</v>
+        <v>1202.06</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.020000</v>
+        <v>-127.02</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>54602.414608</v>
+        <v>54602.414607999999</v>
       </c>
       <c r="V17" s="1">
         <v>15.167337</v>
       </c>
       <c r="W17" s="1">
-        <v>1209.230000</v>
+        <v>1209.23</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.565000</v>
+        <v>-106.565</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>54612.607891</v>
@@ -4411,163 +4827,163 @@
         <v>15.170169</v>
       </c>
       <c r="AB17" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.969900</v>
+        <v>-89.969899999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>54623.789205</v>
+        <v>54623.789205000001</v>
       </c>
       <c r="AF17" s="1">
         <v>15.173275</v>
       </c>
       <c r="AG17" s="1">
-        <v>1221.170000</v>
+        <v>1221.17</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.682000</v>
+        <v>-85.682000000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>54634.001335</v>
+        <v>54634.001335000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>15.176111</v>
+        <v>15.176111000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.386100</v>
+        <v>-89.386099999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>54644.777914</v>
+        <v>54644.777913999998</v>
       </c>
       <c r="AP17" s="1">
         <v>15.179105</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1236.220000</v>
+        <v>1236.22</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.614000</v>
+        <v>-101.614</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>54655.835754</v>
       </c>
       <c r="AU17" s="1">
-        <v>15.182177</v>
+        <v>15.182176999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.236000</v>
+        <v>-121.236</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>54666.878653</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.185244</v>
+        <v>15.185244000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.911000</v>
+        <v>-138.911</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>54678.569356</v>
       </c>
       <c r="BE17" s="1">
-        <v>15.188491</v>
+        <v>15.188491000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1295.430000</v>
+        <v>1295.43</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.448000</v>
+        <v>-221.44800000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>54689.212542</v>
+        <v>54689.212542000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.191448</v>
+        <v>15.191447999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1365.910000</v>
+        <v>1365.91</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.211000</v>
+        <v>-358.21100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>54699.928576</v>
+        <v>54699.928575999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>15.194425</v>
+        <v>15.194425000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1481.420000</v>
+        <v>1481.42</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.354000</v>
+        <v>-580.35400000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>54710.579169</v>
+        <v>54710.579168999997</v>
       </c>
       <c r="BT17" s="1">
         <v>15.197383</v>
       </c>
       <c r="BU17" s="1">
-        <v>1615.060000</v>
+        <v>1615.06</v>
       </c>
       <c r="BV17" s="1">
-        <v>-830.544000</v>
+        <v>-830.54399999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>54721.351779</v>
+        <v>54721.351778999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>15.200375</v>
+        <v>15.200374999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1767.920000</v>
+        <v>1767.92</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1102.430000</v>
+        <v>-1102.43</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>54733.795907</v>
@@ -4576,30 +4992,30 @@
         <v>15.203832</v>
       </c>
       <c r="CE17" s="1">
-        <v>2189.850000</v>
+        <v>2189.85</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1758.640000</v>
+        <v>-1758.64</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>54562.484181</v>
       </c>
       <c r="B18" s="1">
-        <v>15.156246</v>
+        <v>15.156245999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1146.880000</v>
+        <v>1146.8800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-254.298000</v>
+        <v>-254.298</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>54572.601702</v>
@@ -4608,178 +5024,178 @@
         <v>15.159056</v>
       </c>
       <c r="H18" s="1">
-        <v>1167.520000</v>
+        <v>1167.52</v>
       </c>
       <c r="I18" s="1">
-        <v>-212.809000</v>
+        <v>-212.809</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>54582.437738</v>
+        <v>54582.437738000001</v>
       </c>
       <c r="L18" s="1">
         <v>15.161788</v>
       </c>
       <c r="M18" s="1">
-        <v>1194.360000</v>
+        <v>1194.3599999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.605000</v>
+        <v>-148.60499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>54592.605727</v>
+        <v>54592.605727000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>15.164613</v>
+        <v>15.164612999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.001000</v>
+        <v>-127.001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>54603.105536</v>
+        <v>54603.105536000003</v>
       </c>
       <c r="V18" s="1">
         <v>15.167529</v>
       </c>
       <c r="W18" s="1">
-        <v>1209.380000</v>
+        <v>1209.3800000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.506000</v>
+        <v>-106.506</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>54613.304306</v>
+        <v>54613.304305999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.170362</v>
+        <v>15.170362000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.932400</v>
+        <v>-89.932400000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>54624.131476</v>
+        <v>54624.131476000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>15.173370</v>
+        <v>15.17337</v>
       </c>
       <c r="AG18" s="1">
-        <v>1220.990000</v>
+        <v>1220.99</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.823300</v>
+        <v>-85.823300000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>54634.352006</v>
+        <v>54634.352006000001</v>
       </c>
       <c r="AK18" s="1">
         <v>15.176209</v>
       </c>
       <c r="AL18" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.381700</v>
+        <v>-89.381699999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>54645.137512</v>
+        <v>54645.137512000001</v>
       </c>
       <c r="AP18" s="1">
         <v>15.179205</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1236.230000</v>
+        <v>1236.23</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.650000</v>
+        <v>-101.65</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>54656.515737</v>
+        <v>54656.515737000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>15.182365</v>
+        <v>15.182365000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1246.290000</v>
+        <v>1246.29</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.216000</v>
+        <v>-121.21599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>54667.545293</v>
+        <v>54667.545293000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>15.185429</v>
+        <v>15.185428999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.924000</v>
+        <v>-138.92400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>54679.005872</v>
+        <v>54679.005872000002</v>
       </c>
       <c r="BE18" s="1">
         <v>15.188613</v>
       </c>
       <c r="BF18" s="1">
-        <v>1295.440000</v>
+        <v>1295.44</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.464000</v>
+        <v>-221.464</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>54689.580574</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.191550</v>
+        <v>15.191549999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1365.930000</v>
+        <v>1365.93</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.206000</v>
+        <v>-358.20600000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>54700.350176</v>
@@ -4788,255 +5204,255 @@
         <v>15.194542</v>
       </c>
       <c r="BP18" s="1">
-        <v>1481.390000</v>
+        <v>1481.39</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.335000</v>
+        <v>-580.33500000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>54711.005249</v>
+        <v>54711.005249000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>15.197501</v>
+        <v>15.197501000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1614.890000</v>
+        <v>1614.89</v>
       </c>
       <c r="BV18" s="1">
-        <v>-830.592000</v>
+        <v>-830.59199999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>54721.934615</v>
+        <v>54721.934614999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>15.200537</v>
+        <v>15.200537000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1768.060000</v>
+        <v>1768.06</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1102.280000</v>
+        <v>-1102.28</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>54734.347490</v>
+        <v>54734.34749</v>
       </c>
       <c r="CD18" s="1">
-        <v>15.203985</v>
+        <v>15.203984999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2189.810000</v>
+        <v>2189.81</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1759.700000</v>
+        <v>-1759.7</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>54562.820965</v>
+        <v>54562.820964999999</v>
       </c>
       <c r="B19" s="1">
-        <v>15.156339</v>
+        <v>15.156338999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1146.880000</v>
+        <v>1146.8800000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-254.306000</v>
+        <v>-254.30600000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>54572.946296</v>
+        <v>54572.946296000002</v>
       </c>
       <c r="G19" s="1">
-        <v>15.159152</v>
+        <v>15.159152000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1168.390000</v>
+        <v>1168.3900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-212.994000</v>
+        <v>-212.994</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>54583.130651</v>
+        <v>54583.130650999999</v>
       </c>
       <c r="L19" s="1">
-        <v>15.161981</v>
+        <v>15.161981000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1194.290000</v>
+        <v>1194.29</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.707000</v>
+        <v>-148.70699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>54593.300649</v>
+        <v>54593.300648999997</v>
       </c>
       <c r="Q19" s="1">
         <v>15.164806</v>
       </c>
       <c r="R19" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.058000</v>
+        <v>-127.05800000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>54603.449049</v>
+        <v>54603.449049000003</v>
       </c>
       <c r="V19" s="1">
-        <v>15.167625</v>
+        <v>15.167624999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1209.210000</v>
+        <v>1209.21</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.575000</v>
+        <v>-106.575</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>54613.654945</v>
+        <v>54613.654945000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.170460</v>
+        <v>15.17046</v>
       </c>
       <c r="AB19" s="1">
-        <v>1216.620000</v>
+        <v>1216.6199999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.909900</v>
+        <v>-89.909899999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>54624.476659</v>
       </c>
       <c r="AF19" s="1">
-        <v>15.173466</v>
+        <v>15.173465999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1220.990000</v>
+        <v>1220.99</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.513800</v>
+        <v>-85.513800000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>54635.012181</v>
+        <v>54635.012180999998</v>
       </c>
       <c r="AK19" s="1">
         <v>15.176392</v>
       </c>
       <c r="AL19" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.386100</v>
+        <v>-89.386099999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>54645.820999</v>
+        <v>54645.820999000003</v>
       </c>
       <c r="AP19" s="1">
         <v>15.179395</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1236.220000</v>
+        <v>1236.22</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.643000</v>
+        <v>-101.643</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>54656.964616</v>
+        <v>54656.964615999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.182490</v>
+        <v>15.18249</v>
       </c>
       <c r="AV19" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.220000</v>
+        <v>-121.22</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>54667.953481</v>
+        <v>54667.953480999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>15.185543</v>
+        <v>15.185542999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.919000</v>
+        <v>-138.91900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>54679.367915</v>
+        <v>54679.367915000003</v>
       </c>
       <c r="BE19" s="1">
         <v>15.188713</v>
       </c>
       <c r="BF19" s="1">
-        <v>1295.440000</v>
+        <v>1295.44</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.420000</v>
+        <v>-221.42</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>54689.955021</v>
+        <v>54689.955021000002</v>
       </c>
       <c r="BJ19" s="1">
         <v>15.191654</v>
       </c>
       <c r="BK19" s="1">
-        <v>1365.900000</v>
+        <v>1365.9</v>
       </c>
       <c r="BL19" s="1">
-        <v>-358.179000</v>
+        <v>-358.17899999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>54700.745982</v>
@@ -5045,210 +5461,210 @@
         <v>15.194652</v>
       </c>
       <c r="BP19" s="1">
-        <v>1481.370000</v>
+        <v>1481.37</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.402000</v>
+        <v>-580.40200000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>54711.438241</v>
+        <v>54711.438241000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>15.197622</v>
+        <v>15.197622000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1614.950000</v>
+        <v>1614.95</v>
       </c>
       <c r="BV19" s="1">
-        <v>-830.407000</v>
+        <v>-830.40700000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>54722.220275</v>
       </c>
       <c r="BY19" s="1">
-        <v>15.200617</v>
+        <v>15.200616999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1768.080000</v>
+        <v>1768.08</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1102.370000</v>
+        <v>-1102.3699999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>54734.876193</v>
+        <v>54734.876192999996</v>
       </c>
       <c r="CD19" s="1">
         <v>15.204132</v>
       </c>
       <c r="CE19" s="1">
-        <v>2189.550000</v>
+        <v>2189.5500000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1758.080000</v>
+        <v>-1758.08</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>54563.506470</v>
+        <v>54563.50647</v>
       </c>
       <c r="B20" s="1">
-        <v>15.156530</v>
+        <v>15.15653</v>
       </c>
       <c r="C20" s="1">
-        <v>1147.100000</v>
+        <v>1147.0999999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-254.219000</v>
+        <v>-254.21899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>54573.639702</v>
       </c>
       <c r="G20" s="1">
-        <v>15.159344</v>
+        <v>15.159344000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1167.580000</v>
+        <v>1167.58</v>
       </c>
       <c r="I20" s="1">
-        <v>-213.621000</v>
+        <v>-213.62100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>54583.475401</v>
+        <v>54583.475401000003</v>
       </c>
       <c r="L20" s="1">
         <v>15.162077</v>
       </c>
       <c r="M20" s="1">
-        <v>1194.400000</v>
+        <v>1194.4000000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.752000</v>
+        <v>-148.75200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>54593.646829</v>
+        <v>54593.646828999998</v>
       </c>
       <c r="Q20" s="1">
         <v>15.164902</v>
       </c>
       <c r="R20" s="1">
-        <v>1202.080000</v>
+        <v>1202.08</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.028000</v>
+        <v>-127.02800000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>54603.790014</v>
+        <v>54603.790013999998</v>
       </c>
       <c r="V20" s="1">
         <v>15.167719</v>
       </c>
       <c r="W20" s="1">
-        <v>1209.090000</v>
+        <v>1209.0899999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.535000</v>
+        <v>-106.535</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>54614.002674</v>
+        <v>54614.002674000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>15.170556</v>
+        <v>15.170555999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1216.600000</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.919200</v>
+        <v>-89.919200000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>54625.137837</v>
+        <v>54625.137837000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>15.173649</v>
+        <v>15.173648999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1221.260000</v>
+        <v>1221.26</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.745500</v>
+        <v>-85.745500000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>54635.397111</v>
+        <v>54635.397110999998</v>
       </c>
       <c r="AK20" s="1">
         <v>15.176499</v>
       </c>
       <c r="AL20" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.390200</v>
+        <v>-89.390199999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>54646.219782</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.179505</v>
+        <v>15.179505000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1236.210000</v>
+        <v>1236.21</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.612000</v>
+        <v>-101.61199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>54657.329709</v>
+        <v>54657.329708999998</v>
       </c>
       <c r="AU20" s="1">
         <v>15.182592</v>
       </c>
       <c r="AV20" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.246000</v>
+        <v>-121.246</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>54668.344825</v>
@@ -5257,285 +5673,285 @@
         <v>15.185651</v>
       </c>
       <c r="BA20" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.927000</v>
+        <v>-138.92699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>54679.728011</v>
+        <v>54679.728010999999</v>
       </c>
       <c r="BE20" s="1">
         <v>15.188813</v>
       </c>
       <c r="BF20" s="1">
-        <v>1295.410000</v>
+        <v>1295.4100000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.445000</v>
+        <v>-221.44499999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>54690.381084</v>
+        <v>54690.381084000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.191773</v>
       </c>
       <c r="BK20" s="1">
-        <v>1365.960000</v>
+        <v>1365.96</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.219000</v>
+        <v>-358.21899999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>54701.169106</v>
+        <v>54701.169106000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.194769</v>
+        <v>15.194769000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1481.400000</v>
+        <v>1481.4</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.338000</v>
+        <v>-580.33799999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>54711.833552</v>
+        <v>54711.833551999996</v>
       </c>
       <c r="BT20" s="1">
         <v>15.197732</v>
       </c>
       <c r="BU20" s="1">
-        <v>1614.830000</v>
+        <v>1614.83</v>
       </c>
       <c r="BV20" s="1">
-        <v>-830.344000</v>
+        <v>-830.34400000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>54722.642370</v>
+        <v>54722.642370000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>15.200734</v>
+        <v>15.200734000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1767.980000</v>
+        <v>1767.98</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1102.270000</v>
+        <v>-1102.27</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>54735.396002</v>
+        <v>54735.396002000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.204277</v>
+        <v>15.204276999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2187.330000</v>
+        <v>2187.33</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1759.040000</v>
+        <v>-1759.04</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>54563.846691</v>
+        <v>54563.846690999999</v>
       </c>
       <c r="B21" s="1">
-        <v>15.156624</v>
+        <v>15.156624000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1147.110000</v>
+        <v>1147.1099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-254.082000</v>
+        <v>-254.08199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>54573.981942</v>
+        <v>54573.981941999999</v>
       </c>
       <c r="G21" s="1">
-        <v>15.159439</v>
+        <v>15.159439000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1167.860000</v>
+        <v>1167.8599999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-213.089000</v>
+        <v>-213.089</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>54583.821578</v>
+        <v>54583.821578000003</v>
       </c>
       <c r="L21" s="1">
-        <v>15.162173</v>
+        <v>15.162172999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1194.580000</v>
+        <v>1194.58</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.791000</v>
+        <v>-148.791</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>54593.998493</v>
+        <v>54593.998492999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>15.165000</v>
+        <v>15.164999999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1202.080000</v>
+        <v>1202.08</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.114000</v>
+        <v>-127.114</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>54604.457170</v>
+        <v>54604.457170000001</v>
       </c>
       <c r="V21" s="1">
-        <v>15.167905</v>
+        <v>15.167904999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1209.410000</v>
+        <v>1209.4100000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.480000</v>
+        <v>-106.48</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>54614.663314</v>
+        <v>54614.663313999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.170740</v>
+        <v>15.17074</v>
       </c>
       <c r="AB21" s="1">
-        <v>1216.690000</v>
+        <v>1216.69</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.932000</v>
+        <v>-89.932000000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>54625.513795</v>
+        <v>54625.513794999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>15.173754</v>
+        <v>15.173754000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.818600</v>
+        <v>-85.818600000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>54635.742293</v>
+        <v>54635.742293000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>15.176595</v>
+        <v>15.176595000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.389200</v>
+        <v>-89.389200000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>54646.602199</v>
+        <v>54646.602199000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.179612</v>
+        <v>15.179612000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1236.200000</v>
+        <v>1236.2</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.634000</v>
+        <v>-101.634</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>54657.692248</v>
+        <v>54657.692247999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>15.182692</v>
+        <v>15.182691999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.293000</v>
+        <v>-121.29300000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>54668.685081</v>
+        <v>54668.685081000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.185746</v>
       </c>
       <c r="BA21" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.931000</v>
+        <v>-138.93100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>54680.155561</v>
       </c>
       <c r="BE21" s="1">
-        <v>15.188932</v>
+        <v>15.188931999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1295.440000</v>
+        <v>1295.44</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.428000</v>
+        <v>-221.428</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>54690.704973</v>
@@ -5544,362 +5960,362 @@
         <v>15.191862</v>
       </c>
       <c r="BK21" s="1">
-        <v>1365.920000</v>
+        <v>1365.92</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.182000</v>
+        <v>-358.18200000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>54701.566862</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.194880</v>
+        <v>15.194879999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1481.440000</v>
+        <v>1481.44</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.356000</v>
+        <v>-580.35599999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>54712.250191</v>
+        <v>54712.250190999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.197847</v>
+        <v>15.197846999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1614.740000</v>
+        <v>1614.74</v>
       </c>
       <c r="BV21" s="1">
-        <v>-830.282000</v>
+        <v>-830.28200000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>54723.063474</v>
+        <v>54723.063474000002</v>
       </c>
       <c r="BY21" s="1">
         <v>15.200851</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1768.020000</v>
+        <v>1768.02</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1102.400000</v>
+        <v>-1102.4000000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>54735.934656</v>
+        <v>54735.934655999998</v>
       </c>
       <c r="CD21" s="1">
         <v>15.204426</v>
       </c>
       <c r="CE21" s="1">
-        <v>2190.280000</v>
+        <v>2190.2800000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1758.750000</v>
+        <v>-1758.75</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>54564.190952</v>
+        <v>54564.190951999997</v>
       </c>
       <c r="B22" s="1">
-        <v>15.156720</v>
+        <v>15.15672</v>
       </c>
       <c r="C22" s="1">
-        <v>1146.840000</v>
+        <v>1146.8399999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-254.369000</v>
+        <v>-254.369</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>54574.326661</v>
+        <v>54574.326660999999</v>
       </c>
       <c r="G22" s="1">
         <v>15.159535</v>
       </c>
       <c r="H22" s="1">
-        <v>1167.170000</v>
+        <v>1167.17</v>
       </c>
       <c r="I22" s="1">
-        <v>-213.457000</v>
+        <v>-213.45699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>54584.483993</v>
+        <v>54584.483993000002</v>
       </c>
       <c r="L22" s="1">
         <v>15.162357</v>
       </c>
       <c r="M22" s="1">
-        <v>1194.540000</v>
+        <v>1194.54</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.574000</v>
+        <v>-148.57400000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>54594.647259</v>
+        <v>54594.647258999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>15.165180</v>
+        <v>15.165179999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1202.060000</v>
+        <v>1202.06</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.930000</v>
+        <v>-126.93</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>54604.820206</v>
+        <v>54604.820205999997</v>
       </c>
       <c r="V22" s="1">
         <v>15.168006</v>
       </c>
       <c r="W22" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.479000</v>
+        <v>-106.479</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>54615.049697</v>
+        <v>54615.049697000002</v>
       </c>
       <c r="AA22" s="1">
         <v>15.170847</v>
       </c>
       <c r="AB22" s="1">
-        <v>1216.530000</v>
+        <v>1216.53</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.002300</v>
+        <v>-90.002300000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>54625.859507</v>
+        <v>54625.859507000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>15.173850</v>
+        <v>15.17385</v>
       </c>
       <c r="AG22" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.760100</v>
+        <v>-85.760099999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>54636.092005</v>
+        <v>54636.092004999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>15.176692</v>
+        <v>15.176691999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1228.290000</v>
+        <v>1228.29</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.391600</v>
+        <v>-89.391599999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>54646.962790</v>
+        <v>54646.962789999998</v>
       </c>
       <c r="AP22" s="1">
         <v>15.179712</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1236.220000</v>
+        <v>1236.22</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.610000</v>
+        <v>-101.61</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>54658.113881</v>
+        <v>54658.113880999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.182809</v>
+        <v>15.182809000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.277000</v>
+        <v>-121.277</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>54669.424616</v>
+        <v>54669.424615999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>15.185951</v>
+        <v>15.185950999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.943000</v>
+        <v>-138.94300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>54680.452666</v>
+        <v>54680.452665999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>15.189015</v>
+        <v>15.189014999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1295.470000</v>
+        <v>1295.47</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.410000</v>
+        <v>-221.41</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>54691.106271</v>
+        <v>54691.106270999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>15.191974</v>
       </c>
       <c r="BK22" s="1">
-        <v>1365.950000</v>
+        <v>1365.95</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.228000</v>
+        <v>-358.22800000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>54701.990445</v>
+        <v>54701.990445000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>15.194997</v>
+        <v>15.194997000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1481.390000</v>
+        <v>1481.39</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.340000</v>
+        <v>-580.34</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>54712.664351</v>
+        <v>54712.664350999999</v>
       </c>
       <c r="BT22" s="1">
         <v>15.197962</v>
       </c>
       <c r="BU22" s="1">
-        <v>1614.670000</v>
+        <v>1614.67</v>
       </c>
       <c r="BV22" s="1">
-        <v>-830.338000</v>
+        <v>-830.33799999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>54723.507425</v>
+        <v>54723.507425000003</v>
       </c>
       <c r="BY22" s="1">
         <v>15.200974</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1768.080000</v>
+        <v>1768.08</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1102.120000</v>
+        <v>-1102.1199999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>54736.476820</v>
+        <v>54736.476820000003</v>
       </c>
       <c r="CD22" s="1">
         <v>15.204577</v>
       </c>
       <c r="CE22" s="1">
-        <v>2188.050000</v>
+        <v>2188.0500000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1758.050000</v>
+        <v>-1758.05</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>54564.841666</v>
       </c>
       <c r="B23" s="1">
-        <v>15.156900</v>
+        <v>15.1569</v>
       </c>
       <c r="C23" s="1">
-        <v>1147.040000</v>
+        <v>1147.04</v>
       </c>
       <c r="D23" s="1">
-        <v>-254.248000</v>
+        <v>-254.24799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>54574.980884</v>
+        <v>54574.980883999997</v>
       </c>
       <c r="G23" s="1">
-        <v>15.159717</v>
+        <v>15.159717000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1167.930000</v>
+        <v>1167.93</v>
       </c>
       <c r="I23" s="1">
-        <v>-213.374000</v>
+        <v>-213.374</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>54584.858215</v>
@@ -5908,450 +6324,450 @@
         <v>15.162461</v>
       </c>
       <c r="M23" s="1">
-        <v>1194.170000</v>
+        <v>1194.17</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.623000</v>
+        <v>-148.62299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>54595.044058</v>
+        <v>54595.044057999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>15.165290</v>
+        <v>15.165290000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1202.100000</v>
+        <v>1202.0999999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.960000</v>
+        <v>-126.96</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>54605.165422</v>
+        <v>54605.165421999998</v>
       </c>
       <c r="V23" s="1">
-        <v>15.168102</v>
+        <v>15.168101999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1209.300000</v>
+        <v>1209.3</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.510000</v>
+        <v>-106.51</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>54615.451952</v>
+        <v>54615.451952000003</v>
       </c>
       <c r="AA23" s="1">
         <v>15.170959</v>
       </c>
       <c r="AB23" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.803200</v>
+        <v>-89.803200000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>54626.205217</v>
+        <v>54626.205217000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.173946</v>
+        <v>15.173946000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1221.090000</v>
+        <v>1221.0899999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.930500</v>
+        <v>-85.930499999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>54636.514605</v>
+        <v>54636.514604999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.176810</v>
+        <v>15.17681</v>
       </c>
       <c r="AL23" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.408700</v>
+        <v>-89.408699999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>54647.387403</v>
+        <v>54647.387403000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>15.179830</v>
+        <v>15.179830000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1236.200000</v>
+        <v>1236.2</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.643000</v>
+        <v>-101.643</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>54658.420374</v>
+        <v>54658.420374000001</v>
       </c>
       <c r="AU23" s="1">
         <v>15.182895</v>
       </c>
       <c r="AV23" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.226000</v>
+        <v>-121.226</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>54669.800120</v>
+        <v>54669.80012</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.186056</v>
+        <v>15.186056000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.928000</v>
+        <v>-138.928</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>54680.816729</v>
+        <v>54680.816728999998</v>
       </c>
       <c r="BE23" s="1">
         <v>15.189116</v>
       </c>
       <c r="BF23" s="1">
-        <v>1295.450000</v>
+        <v>1295.45</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.432000</v>
+        <v>-221.43199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>54691.481243</v>
+        <v>54691.481243000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>15.192078</v>
       </c>
       <c r="BK23" s="1">
-        <v>1365.920000</v>
+        <v>1365.92</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.185000</v>
+        <v>-358.185</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>54702.387256</v>
+        <v>54702.387256000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.195108</v>
+        <v>15.195107999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1481.400000</v>
+        <v>1481.4</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.384000</v>
+        <v>-580.38400000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>54713.086942</v>
+        <v>54713.086942000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.198080</v>
+        <v>15.198079999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1614.670000</v>
+        <v>1614.67</v>
       </c>
       <c r="BV23" s="1">
-        <v>-830.309000</v>
+        <v>-830.30899999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>54723.940434</v>
+        <v>54723.940433999996</v>
       </c>
       <c r="BY23" s="1">
         <v>15.201095</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1768.010000</v>
+        <v>1768.01</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1102.310000</v>
+        <v>-1102.31</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>54737.015971</v>
+        <v>54737.015971000001</v>
       </c>
       <c r="CD23" s="1">
         <v>15.204727</v>
       </c>
       <c r="CE23" s="1">
-        <v>2189.000000</v>
+        <v>2189</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1760.030000</v>
+        <v>-1760.03</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>54565.210721</v>
+        <v>54565.210721000003</v>
       </c>
       <c r="B24" s="1">
         <v>15.157003</v>
       </c>
       <c r="C24" s="1">
-        <v>1147.160000</v>
+        <v>1147.1600000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-254.243000</v>
+        <v>-254.24299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>54575.359859</v>
+        <v>54575.359858999997</v>
       </c>
       <c r="G24" s="1">
         <v>15.159822</v>
       </c>
       <c r="H24" s="1">
-        <v>1167.250000</v>
+        <v>1167.25</v>
       </c>
       <c r="I24" s="1">
-        <v>-212.249000</v>
+        <v>-212.249</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>54585.203432</v>
+        <v>54585.203432000002</v>
       </c>
       <c r="L24" s="1">
         <v>15.162557</v>
       </c>
       <c r="M24" s="1">
-        <v>1194.650000</v>
+        <v>1194.6500000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.578000</v>
+        <v>-148.578</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>54595.392250</v>
+        <v>54595.392249999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>15.165387</v>
+        <v>15.165387000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.995000</v>
+        <v>-126.995</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>54605.496748</v>
+        <v>54605.496747999998</v>
       </c>
       <c r="V24" s="1">
         <v>15.168194</v>
       </c>
       <c r="W24" s="1">
-        <v>1209.270000</v>
+        <v>1209.27</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.580000</v>
+        <v>-106.58</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>54615.751536</v>
+        <v>54615.751536000003</v>
       </c>
       <c r="AA24" s="1">
         <v>15.171042</v>
       </c>
       <c r="AB24" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.959700</v>
+        <v>-89.959699999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>54626.630290</v>
+        <v>54626.630290000001</v>
       </c>
       <c r="AF24" s="1">
         <v>15.174064</v>
       </c>
       <c r="AG24" s="1">
-        <v>1221.420000</v>
+        <v>1221.42</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.647300</v>
+        <v>-85.647300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>54636.787896</v>
+        <v>54636.787896000002</v>
       </c>
       <c r="AK24" s="1">
         <v>15.176886</v>
       </c>
       <c r="AL24" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.409000</v>
+        <v>-89.409000000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>54647.678516</v>
       </c>
       <c r="AP24" s="1">
-        <v>15.179911</v>
+        <v>15.179911000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1236.210000</v>
+        <v>1236.21</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.638000</v>
+        <v>-101.63800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>54658.785926</v>
+        <v>54658.785925999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>15.182996</v>
+        <v>15.182995999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.213000</v>
+        <v>-121.21299999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>54670.188951</v>
+        <v>54670.188950999996</v>
       </c>
       <c r="AZ24" s="1">
         <v>15.186164</v>
       </c>
       <c r="BA24" s="1">
-        <v>1254.810000</v>
+        <v>1254.81</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.918000</v>
+        <v>-138.91800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>54681.175833</v>
+        <v>54681.175833000001</v>
       </c>
       <c r="BE24" s="1">
         <v>15.189216</v>
       </c>
       <c r="BF24" s="1">
-        <v>1295.440000</v>
+        <v>1295.44</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.426000</v>
+        <v>-221.42599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>54692.231163</v>
+        <v>54692.231162999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.192286</v>
+        <v>15.192285999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1365.930000</v>
+        <v>1365.93</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.207000</v>
+        <v>-358.20699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>54702.803885</v>
+        <v>54702.803885000001</v>
       </c>
       <c r="BO24" s="1">
         <v>15.195223</v>
       </c>
       <c r="BP24" s="1">
-        <v>1481.420000</v>
+        <v>1481.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.365000</v>
+        <v>-580.36500000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>54713.497135</v>
+        <v>54713.497134999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>15.198194</v>
+        <v>15.198194000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1614.590000</v>
+        <v>1614.59</v>
       </c>
       <c r="BV24" s="1">
-        <v>-830.177000</v>
+        <v>-830.17700000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>54724.361503</v>
@@ -6360,544 +6776,545 @@
         <v>15.201212</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1768.130000</v>
+        <v>1768.13</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1102.330000</v>
+        <v>-1102.33</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>54737.553738</v>
+        <v>54737.553738000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>15.204876</v>
+        <v>15.204876000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2189.400000</v>
+        <v>2189.4</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1757.490000</v>
+        <v>-1757.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>54565.554450</v>
+        <v>54565.554450000003</v>
       </c>
       <c r="B25" s="1">
         <v>15.157098</v>
       </c>
       <c r="C25" s="1">
-        <v>1146.890000</v>
+        <v>1146.8900000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-254.355000</v>
+        <v>-254.35499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>54575.706067</v>
+        <v>54575.706066999999</v>
       </c>
       <c r="G25" s="1">
-        <v>15.159918</v>
+        <v>15.159917999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1167.080000</v>
+        <v>1167.08</v>
       </c>
       <c r="I25" s="1">
-        <v>-213.873000</v>
+        <v>-213.87299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>54585.550509</v>
+        <v>54585.550509000001</v>
       </c>
       <c r="L25" s="1">
-        <v>15.162653</v>
+        <v>15.162653000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1194.420000</v>
+        <v>1194.42</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.852000</v>
+        <v>-148.852</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>54595.740441</v>
+        <v>54595.740441000002</v>
       </c>
       <c r="Q25" s="1">
         <v>15.165483</v>
       </c>
       <c r="R25" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.011000</v>
+        <v>-127.011</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>54605.928267</v>
+        <v>54605.928267000003</v>
       </c>
       <c r="V25" s="1">
-        <v>15.168313</v>
+        <v>15.168312999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1209.340000</v>
+        <v>1209.3399999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.503000</v>
+        <v>-106.503</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>54616.446928</v>
+        <v>54616.446927999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>15.171235</v>
+        <v>15.171234999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1216.700000</v>
+        <v>1216.7</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.933500</v>
+        <v>-89.933499999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>54626.898165</v>
+        <v>54626.898164999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.174138</v>
+        <v>15.174137999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1221.240000</v>
+        <v>1221.24</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.638100</v>
+        <v>-85.638099999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>54637.137538</v>
+        <v>54637.137538000003</v>
       </c>
       <c r="AK25" s="1">
         <v>15.176983</v>
       </c>
       <c r="AL25" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.385400</v>
+        <v>-89.385400000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>54648.042580</v>
+        <v>54648.042580000001</v>
       </c>
       <c r="AP25" s="1">
         <v>15.180012</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1236.210000</v>
+        <v>1236.21</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.627000</v>
+        <v>-101.627</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>54659.152502</v>
+        <v>54659.152501999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.183098</v>
+        <v>15.183097999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1246.290000</v>
+        <v>1246.29</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.238000</v>
+        <v>-121.238</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>54670.903222</v>
+        <v>54670.903222000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.186362</v>
+        <v>15.186362000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.903000</v>
+        <v>-138.90299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>54681.895527</v>
+        <v>54681.895527000001</v>
       </c>
       <c r="BE25" s="1">
         <v>15.189415</v>
       </c>
       <c r="BF25" s="1">
-        <v>1295.480000</v>
+        <v>1295.48</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.424000</v>
+        <v>-221.42400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>54692.608618</v>
+        <v>54692.608617999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.192391</v>
+        <v>15.192391000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1365.960000</v>
+        <v>1365.96</v>
       </c>
       <c r="BL25" s="1">
-        <v>-358.223000</v>
+        <v>-358.22300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>54703.204155</v>
+        <v>54703.204154999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.195334</v>
+        <v>15.195334000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1481.420000</v>
+        <v>1481.42</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.365000</v>
+        <v>-580.36500000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>54713.913774</v>
+        <v>54713.913774000001</v>
       </c>
       <c r="BT25" s="1">
         <v>15.198309</v>
       </c>
       <c r="BU25" s="1">
-        <v>1614.500000</v>
+        <v>1614.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-830.276000</v>
+        <v>-830.27599999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>54725.098095</v>
+        <v>54725.098095000001</v>
       </c>
       <c r="BY25" s="1">
         <v>15.201416</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1768.060000</v>
+        <v>1768.06</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1102.290000</v>
+        <v>-1102.29</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>54738.401793</v>
+        <v>54738.401792999997</v>
       </c>
       <c r="CD25" s="1">
         <v>15.205112</v>
       </c>
       <c r="CE25" s="1">
-        <v>2190.030000</v>
+        <v>2190.0300000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1759.710000</v>
+        <v>-1759.71</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>54565.897152</v>
+        <v>54565.897151999998</v>
       </c>
       <c r="B26" s="1">
         <v>15.157194</v>
       </c>
       <c r="C26" s="1">
-        <v>1146.850000</v>
+        <v>1146.8499999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-254.260000</v>
+        <v>-254.26</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>54576.051514</v>
+        <v>54576.051513999999</v>
       </c>
       <c r="G26" s="1">
         <v>15.160014</v>
       </c>
       <c r="H26" s="1">
-        <v>1167.790000</v>
+        <v>1167.79</v>
       </c>
       <c r="I26" s="1">
-        <v>-213.622000</v>
+        <v>-213.62200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>54585.969782</v>
       </c>
       <c r="L26" s="1">
-        <v>15.162769</v>
+        <v>15.162769000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1194.510000</v>
+        <v>1194.51</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.575000</v>
+        <v>-148.57499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>54596.175928</v>
+        <v>54596.175927999997</v>
       </c>
       <c r="Q26" s="1">
         <v>15.165604</v>
       </c>
       <c r="R26" s="1">
-        <v>1202.040000</v>
+        <v>1202.04</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.052000</v>
+        <v>-127.05200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>54606.195643</v>
+        <v>54606.195642999999</v>
       </c>
       <c r="V26" s="1">
         <v>15.168388</v>
       </c>
       <c r="W26" s="1">
-        <v>1209.200000</v>
+        <v>1209.2</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.522000</v>
+        <v>-106.52200000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>54616.796111</v>
+        <v>54616.796111000003</v>
       </c>
       <c r="AA26" s="1">
         <v>15.171332</v>
       </c>
       <c r="AB26" s="1">
-        <v>1216.550000</v>
+        <v>1216.55</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.886300</v>
+        <v>-89.886300000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>54627.246321</v>
+        <v>54627.246320999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>15.174235</v>
+        <v>15.174234999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.800300</v>
+        <v>-85.800299999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>54637.486722</v>
+        <v>54637.486722000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.177080</v>
+        <v>15.17708</v>
       </c>
       <c r="AL26" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.391600</v>
+        <v>-89.391599999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>54648.399236</v>
+        <v>54648.399235999997</v>
       </c>
       <c r="AP26" s="1">
         <v>15.180111</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1236.230000</v>
+        <v>1236.23</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.601000</v>
+        <v>-101.601</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>54659.882612</v>
+        <v>54659.882612000001</v>
       </c>
       <c r="AU26" s="1">
         <v>15.183301</v>
       </c>
       <c r="AV26" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.261000</v>
+        <v>-121.261</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>54671.263810</v>
+        <v>54671.263809999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>15.186462</v>
+        <v>15.186462000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1254.800000</v>
+        <v>1254.8</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.913000</v>
+        <v>-138.91300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>54682.258115</v>
+        <v>54682.258114999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.189516</v>
+        <v>15.189515999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1295.440000</v>
+        <v>1295.44</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.430000</v>
+        <v>-221.43</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>54692.981144</v>
+        <v>54692.981143999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>15.192495</v>
+        <v>15.192494999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1365.910000</v>
+        <v>1365.91</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.214000</v>
+        <v>-358.214</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>54703.669402</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.195464</v>
+        <v>15.195463999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1481.330000</v>
+        <v>1481.33</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.383000</v>
+        <v>-580.38300000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>54714.640944</v>
+        <v>54714.640943999999</v>
       </c>
       <c r="BT26" s="1">
         <v>15.198511</v>
       </c>
       <c r="BU26" s="1">
-        <v>1614.390000</v>
+        <v>1614.39</v>
       </c>
       <c r="BV26" s="1">
-        <v>-830.267000</v>
+        <v>-830.26700000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>54725.209167</v>
+        <v>54725.209167000001</v>
       </c>
       <c r="BY26" s="1">
         <v>15.201447</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1768.210000</v>
+        <v>1768.21</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1102.440000</v>
+        <v>-1102.44</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>54738.664140</v>
+        <v>54738.664140000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.205184</v>
+        <v>15.205183999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.950000</v>
+        <v>2189.9499999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1759.130000</v>
+        <v>-1759.13</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>